--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DC\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D2451-5FCC-4E89-B021-DC0D8EEFD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3E11A-3712-4BCA-98BE-15BC544F4EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0F533165-8C70-4985-AF35-95D11CD11D78}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1353">
   <si>
     <t>ID</t>
   </si>
@@ -3993,12 +3993,6 @@
     <t>Respuesta Correcta</t>
   </si>
   <si>
-    <t>En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de
-C. ISO/IEC 20000 establece requisitos para la gestión de servicios de TI, asegurando que se entreguen servicios de calidad que cumplan con las
-B. ISO/IEC 27001 establece requisitos para la gestión de la seguridad de la información, asegurando que la información confidencial esté protegida de
-En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?</t>
-  </si>
-  <si>
     <t>El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: "En MVC, el ….................... se encarga de la presentación de los datos, mientras que el ...................... maneja la lógica de negocio."</t>
   </si>
   <si>
@@ -4102,6 +4096,9 @@
   </si>
   <si>
     <t>B. Funciones que se utilizan para trabajar con fechas.</t>
+  </si>
+  <si>
+    <t>En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?</t>
   </si>
 </sst>
 </file>
@@ -4473,18 +4470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
-  <dimension ref="A1:N282"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="145.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4510,7 +4509,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4518,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D2" t="s">
         <v>1351</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1352</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -4533,7 +4532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4671,12 +4670,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -4694,12 +4693,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -4717,12 +4716,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -4740,12 +4739,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -4763,12 +4762,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>55</v>
@@ -4783,15 +4782,15 @@
         <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -4809,12 +4808,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -4832,7 +4831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4855,12 +4854,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4878,12 +4877,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -4901,12 +4900,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -4924,7 +4923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4970,12 +4969,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -4993,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5657,10 +5656,10 @@
         <v>241</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6121,7 +6120,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6145,7 +6144,7 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1317</v>
+        <v>1352</v>
       </c>
       <c r="C80" t="s">
         <v>381</v>
@@ -6329,7 +6328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6927,12 +6926,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C107" t="s">
         <v>515</v>
@@ -6950,12 +6949,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C108" t="s">
         <v>519</v>
@@ -6973,12 +6972,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C109" t="s">
         <v>523</v>
@@ -6996,12 +6995,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C110" t="s">
         <v>527</v>
@@ -7019,12 +7018,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C111" t="s">
         <v>531</v>
@@ -7042,7 +7041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7778,12 +7777,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C144" t="s">
         <v>1172</v>
@@ -7801,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7893,12 +7892,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C149" t="s">
         <v>1148</v>
@@ -7916,7 +7915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8008,12 +8007,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C154" t="s">
         <v>1124</v>
@@ -8031,7 +8030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8123,12 +8122,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C159" t="s">
         <v>1106</v>
@@ -8146,7 +8145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8330,12 +8329,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C168" t="s">
         <v>1070</v>
@@ -8353,12 +8352,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C169" t="s">
         <v>1066</v>
@@ -8376,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8468,12 +8467,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C174" t="s">
         <v>1027</v>
@@ -8491,7 +8490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8513,23 +8512,8 @@
       <c r="G175" t="s">
         <v>4</v>
       </c>
-      <c r="J175" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K175" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L175" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M175" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N175" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8552,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8575,7 +8559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8598,7 +8582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8621,12 +8605,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C180" t="s">
         <v>1036</v>
@@ -8644,7 +8628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8667,7 +8651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8690,7 +8674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8713,7 +8697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8736,7 +8720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8759,7 +8743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8782,7 +8766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8805,7 +8789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8828,7 +8812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8851,12 +8835,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C190" t="s">
         <v>968</v>
@@ -8874,7 +8858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8897,7 +8881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8920,7 +8904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8943,7 +8927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8966,7 +8950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8989,7 +8973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9012,7 +8996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9035,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9058,7 +9042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9081,12 +9065,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C200" t="s">
         <v>924</v>
@@ -9104,7 +9088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9127,7 +9111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9150,7 +9134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9173,7 +9157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9196,7 +9180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9219,7 +9203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9242,7 +9226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9265,7 +9249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9288,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9311,12 +9295,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C210" t="s">
         <v>879</v>
@@ -9334,7 +9318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9357,7 +9341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9380,12 +9364,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C213" t="s">
         <v>865</v>
@@ -9403,12 +9387,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
@@ -9426,7 +9410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9449,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9472,7 +9456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9495,7 +9479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9518,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9541,12 +9525,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C220" t="s">
         <v>840</v>
@@ -9564,7 +9548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9587,7 +9571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9610,7 +9594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9633,12 +9617,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C224" t="s">
         <v>43</v>
@@ -9656,7 +9640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9679,7 +9663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9702,7 +9686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9725,7 +9709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9748,7 +9732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9771,12 +9755,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C230" t="s">
         <v>800</v>
@@ -9794,7 +9778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9817,7 +9801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9840,7 +9824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9863,7 +9847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9886,7 +9870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9909,7 +9893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9932,7 +9916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9955,7 +9939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9978,12 +9962,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C239" t="s">
         <v>47</v>
@@ -10001,12 +9985,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C240" t="s">
         <v>756</v>
@@ -10024,7 +10008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10047,7 +10031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10070,7 +10054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10093,7 +10077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10116,7 +10100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10139,7 +10123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10162,7 +10146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10182,7 +10166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10205,7 +10189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10228,7 +10212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10251,7 +10235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10274,7 +10258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10297,7 +10281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10320,7 +10304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10343,7 +10327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10366,7 +10350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10389,7 +10373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10412,7 +10396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10435,7 +10419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10458,7 +10442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10481,7 +10465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10504,7 +10488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10527,7 +10511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10550,7 +10534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10573,7 +10557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10596,7 +10580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10619,7 +10603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10642,7 +10626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10665,7 +10649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10688,7 +10672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10711,7 +10695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10734,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10757,7 +10741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10780,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10803,7 +10787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10826,7 +10810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10849,7 +10833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10872,7 +10856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10895,7 +10879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10918,7 +10902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10941,7 +10925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10964,7 +10948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10988,7 +10972,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G282" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}"/>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G282" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
+    <filterColumn colId="1">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="¿Cuál de las siguientes afirmaciones describe mejor el propósito de la norma ISO/IEC 20000?"/>
+            <x14:filter val="En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de_x000a_C. ISO/IEC 20000 establece requisitos para la gestión de servicios de TI, asegurando que se entreguen servicios de calidad que cumplan con las_x000a_B. ISO/IEC 27001 establece requisitos para la gestión de la seguridad de la información, asegurando que la información confidencial esté protegida de_x000a_En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="¿Cuál de las siguientes afirmaciones describe mejor el propósito de la norma ISO/IEC 20000?"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DC\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3E11A-3712-4BCA-98BE-15BC544F4EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6895F-73AC-4999-A0B3-C51D590DF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0F533165-8C70-4985-AF35-95D11CD11D78}"/>
   </bookViews>
@@ -1078,11 +1078,6 @@
     <t>D. El uso de software para combinar múltiples servidores físicos en una única entidad lógica, facilitando la gestión y distribución de cargas de trabajo.</t>
   </si>
   <si>
-    <t>C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y
-C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y
-C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware.</t>
-  </si>
-  <si>
     <t>¿Cuál de las siguientes afirmaciones describe mejor la diferencia entre una plataforma de hardware y una plataforma de software?</t>
   </si>
   <si>
@@ -4099,6 +4094,9 @@
   </si>
   <si>
     <t>En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?</t>
+  </si>
+  <si>
+    <t>C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware.</t>
   </si>
 </sst>
 </file>
@@ -4473,8 +4471,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I288" sqref="I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,19 +4492,19 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1" t="s">
         <v>1312</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1313</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1315</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4517,10 +4515,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D2" t="s">
         <v>1350</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1351</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -4675,7 +4673,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -4698,7 +4696,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -4721,7 +4719,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -4744,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -4767,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>55</v>
@@ -4790,7 +4788,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -4813,7 +4811,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -4859,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4882,7 +4880,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -4905,7 +4903,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -4974,7 +4972,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -6120,7 +6118,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6134,7 +6132,7 @@
         <v>344</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>346</v>
+        <v>1352</v>
       </c>
       <c r="F72" t="s">
         <v>345</v>
@@ -6149,19 +6147,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" t="s">
         <v>347</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>350</v>
+      </c>
+      <c r="E73" t="s">
         <v>348</v>
       </c>
-      <c r="D73" t="s">
-        <v>351</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>349</v>
-      </c>
-      <c r="F73" t="s">
-        <v>350</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -6172,19 +6170,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" t="s">
         <v>352</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>353</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>354</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>355</v>
-      </c>
-      <c r="F74" t="s">
-        <v>356</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -6195,19 +6193,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" t="s">
         <v>357</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>358</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>359</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>360</v>
-      </c>
-      <c r="F75" t="s">
-        <v>361</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -6218,42 +6216,42 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
         <v>362</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>363</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>364</v>
       </c>
-      <c r="E76" t="s">
-        <v>365</v>
-      </c>
       <c r="F76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" t="s">
         <v>366</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>367</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>368</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>369</v>
-      </c>
-      <c r="F77" t="s">
-        <v>370</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -6264,19 +6262,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" t="s">
         <v>371</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>372</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>373</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>374</v>
-      </c>
-      <c r="F78" t="s">
-        <v>375</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
@@ -6287,42 +6285,42 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" t="s">
         <v>376</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>377</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>378</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>379</v>
-      </c>
-      <c r="F79" t="s">
-        <v>380</v>
       </c>
       <c r="G79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" t="s">
         <v>381</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>382</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>383</v>
-      </c>
-      <c r="F80" t="s">
-        <v>384</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -6333,19 +6331,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s">
         <v>385</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>386</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>387</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>388</v>
-      </c>
-      <c r="F81" t="s">
-        <v>389</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -6356,19 +6354,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" t="s">
         <v>390</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>391</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>392</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>393</v>
-      </c>
-      <c r="F82" t="s">
-        <v>394</v>
       </c>
       <c r="G82" t="s">
         <v>4</v>
@@ -6379,19 +6377,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" t="s">
         <v>395</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>396</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>397</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>398</v>
-      </c>
-      <c r="F83" t="s">
-        <v>399</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -6402,19 +6400,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
         <v>400</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>401</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>402</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>403</v>
-      </c>
-      <c r="F84" t="s">
-        <v>404</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -6425,19 +6423,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>404</v>
+      </c>
+      <c r="C85" t="s">
         <v>405</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>406</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>407</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>408</v>
-      </c>
-      <c r="F85" t="s">
-        <v>409</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -6448,19 +6446,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" t="s">
         <v>410</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>411</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>412</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>413</v>
-      </c>
-      <c r="F86" t="s">
-        <v>414</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -6471,19 +6469,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" t="s">
         <v>415</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>416</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>417</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>418</v>
-      </c>
-      <c r="F87" t="s">
-        <v>419</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -6494,19 +6492,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88" t="s">
         <v>420</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>421</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>422</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>423</v>
-      </c>
-      <c r="F88" t="s">
-        <v>424</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -6517,19 +6515,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>424</v>
+      </c>
+      <c r="C89" t="s">
         <v>425</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>426</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>427</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>428</v>
-      </c>
-      <c r="F89" t="s">
-        <v>429</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -6540,19 +6538,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>429</v>
+      </c>
+      <c r="C90" t="s">
         <v>430</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>431</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>432</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>433</v>
-      </c>
-      <c r="F90" t="s">
-        <v>434</v>
       </c>
       <c r="G90" t="s">
         <v>4</v>
@@ -6563,19 +6561,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>434</v>
+      </c>
+      <c r="C91" t="s">
         <v>435</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>436</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>437</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>438</v>
-      </c>
-      <c r="F91" t="s">
-        <v>439</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -6586,19 +6584,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" t="s">
         <v>440</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>441</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>442</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>443</v>
-      </c>
-      <c r="F92" t="s">
-        <v>444</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -6609,19 +6607,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" t="s">
         <v>445</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>446</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>447</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>448</v>
-      </c>
-      <c r="F93" t="s">
-        <v>449</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -6632,19 +6630,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" t="s">
         <v>450</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>451</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>452</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>453</v>
-      </c>
-      <c r="F94" t="s">
-        <v>454</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -6655,19 +6653,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" t="s">
         <v>455</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>456</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>457</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>458</v>
-      </c>
-      <c r="F95" t="s">
-        <v>459</v>
       </c>
       <c r="G95" t="s">
         <v>4</v>
@@ -6678,19 +6676,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" t="s">
         <v>460</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>461</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>462</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>463</v>
-      </c>
-      <c r="F96" t="s">
-        <v>464</v>
       </c>
       <c r="G96" t="s">
         <v>4</v>
@@ -6701,19 +6699,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>464</v>
+      </c>
+      <c r="C97" t="s">
         <v>465</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>466</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>467</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>468</v>
-      </c>
-      <c r="F97" t="s">
-        <v>469</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -6724,19 +6722,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>469</v>
+      </c>
+      <c r="C98" t="s">
         <v>470</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>471</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>472</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>473</v>
-      </c>
-      <c r="F98" t="s">
-        <v>474</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -6747,19 +6745,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" t="s">
         <v>475</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>476</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>477</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>478</v>
-      </c>
-      <c r="F99" t="s">
-        <v>479</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
@@ -6770,19 +6768,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>479</v>
+      </c>
+      <c r="C100" t="s">
         <v>480</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>481</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>482</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>483</v>
-      </c>
-      <c r="F100" t="s">
-        <v>484</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -6793,19 +6791,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" t="s">
         <v>485</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>486</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>487</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>488</v>
-      </c>
-      <c r="F101" t="s">
-        <v>489</v>
       </c>
       <c r="G101" t="s">
         <v>4</v>
@@ -6816,19 +6814,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" t="s">
         <v>490</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>491</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>492</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>493</v>
-      </c>
-      <c r="F102" t="s">
-        <v>494</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -6839,19 +6837,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" t="s">
         <v>495</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>496</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>497</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>498</v>
-      </c>
-      <c r="F103" t="s">
-        <v>499</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -6862,19 +6860,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" t="s">
         <v>500</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>501</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>502</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>503</v>
-      </c>
-      <c r="F104" t="s">
-        <v>504</v>
       </c>
       <c r="G104" t="s">
         <v>4</v>
@@ -6885,19 +6883,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" t="s">
         <v>505</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>506</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>507</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>508</v>
-      </c>
-      <c r="F105" t="s">
-        <v>509</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -6908,19 +6906,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>509</v>
+      </c>
+      <c r="C106" t="s">
         <v>510</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>511</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>512</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>513</v>
-      </c>
-      <c r="F106" t="s">
-        <v>514</v>
       </c>
       <c r="G106" t="s">
         <v>37</v>
@@ -6931,19 +6929,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C107" t="s">
+        <v>514</v>
+      </c>
+      <c r="D107" t="s">
         <v>515</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>516</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>517</v>
-      </c>
-      <c r="F107" t="s">
-        <v>518</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -6954,19 +6952,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C108" t="s">
+        <v>518</v>
+      </c>
+      <c r="D108" t="s">
         <v>519</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>520</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>521</v>
-      </c>
-      <c r="F108" t="s">
-        <v>522</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -6977,19 +6975,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C109" t="s">
+        <v>522</v>
+      </c>
+      <c r="D109" t="s">
         <v>523</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>524</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>525</v>
-      </c>
-      <c r="F109" t="s">
-        <v>526</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
@@ -7000,19 +6998,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C110" t="s">
+        <v>526</v>
+      </c>
+      <c r="D110" t="s">
         <v>527</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>528</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>529</v>
-      </c>
-      <c r="F110" t="s">
-        <v>530</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -7023,19 +7021,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C111" t="s">
+        <v>530</v>
+      </c>
+      <c r="D111" t="s">
         <v>531</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>532</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>533</v>
-      </c>
-      <c r="F111" t="s">
-        <v>534</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -7046,19 +7044,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>534</v>
+      </c>
+      <c r="C112" t="s">
         <v>535</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>536</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>537</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>538</v>
-      </c>
-      <c r="F112" t="s">
-        <v>539</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -7069,19 +7067,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>539</v>
+      </c>
+      <c r="C113" t="s">
         <v>540</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>541</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>542</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>543</v>
-      </c>
-      <c r="F113" t="s">
-        <v>544</v>
       </c>
       <c r="G113" t="s">
         <v>37</v>
@@ -7092,19 +7090,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>544</v>
+      </c>
+      <c r="C114" t="s">
         <v>545</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>546</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>547</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>548</v>
-      </c>
-      <c r="F114" t="s">
-        <v>549</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -7115,19 +7113,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>549</v>
+      </c>
+      <c r="C115" t="s">
         <v>550</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>551</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>552</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>553</v>
-      </c>
-      <c r="F115" t="s">
-        <v>554</v>
       </c>
       <c r="G115" t="s">
         <v>10</v>
@@ -7138,19 +7136,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C116" t="s">
         <v>1307</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>1308</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>1309</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1310</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1311</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -7161,19 +7159,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C117" t="s">
         <v>1302</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>1303</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>1304</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1305</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1306</v>
       </c>
       <c r="G117" t="s">
         <v>4</v>
@@ -7184,19 +7182,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C118" t="s">
         <v>1297</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>1298</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>1299</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1300</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1301</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -7207,19 +7205,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C119" t="s">
         <v>1292</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1293</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>1294</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>1295</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1296</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -7230,19 +7228,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C120" t="s">
         <v>1287</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>1288</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>1289</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1290</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1291</v>
       </c>
       <c r="G120" t="s">
         <v>10</v>
@@ -7253,19 +7251,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C121" t="s">
         <v>1282</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>1283</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>1284</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>1285</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1286</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
@@ -7276,19 +7274,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C122" t="s">
         <v>1277</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>1278</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>1279</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>1280</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1281</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
@@ -7299,19 +7297,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C123" t="s">
         <v>1272</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>1273</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>1274</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>1275</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1276</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -7322,19 +7320,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C124" t="s">
         <v>1267</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>1268</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>1269</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>1270</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1271</v>
       </c>
       <c r="G124" t="s">
         <v>37</v>
@@ -7345,19 +7343,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D125" t="s">
         <v>1265</v>
       </c>
-      <c r="C125" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1266</v>
-      </c>
       <c r="E125" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F125" t="s">
         <v>1263</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1264</v>
       </c>
       <c r="G125" t="s">
         <v>16</v>
@@ -7368,19 +7366,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C126" t="s">
         <v>1260</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>1261</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>1262</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>1263</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1264</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
@@ -7391,19 +7389,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C127" t="s">
         <v>1255</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>1256</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>1257</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>1258</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1259</v>
       </c>
       <c r="G127" t="s">
         <v>4</v>
@@ -7414,19 +7412,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C128" t="s">
         <v>1250</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>1251</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>1252</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1254</v>
       </c>
       <c r="G128" t="s">
         <v>37</v>
@@ -7437,19 +7435,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C129" t="s">
         <v>1245</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>1246</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>1247</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>1248</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1249</v>
       </c>
       <c r="G129" t="s">
         <v>10</v>
@@ -7460,19 +7458,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C130" t="s">
         <v>1240</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>1241</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>1242</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>1243</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1244</v>
       </c>
       <c r="G130" t="s">
         <v>10</v>
@@ -7483,19 +7481,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C131" t="s">
         <v>1235</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>1236</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>1237</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>1238</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1239</v>
       </c>
       <c r="G131" t="s">
         <v>10</v>
@@ -7506,19 +7504,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C132" t="s">
         <v>1230</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>1231</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>1232</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>1233</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1234</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -7529,19 +7527,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C133" t="s">
         <v>1225</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>1226</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>1227</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1228</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1229</v>
       </c>
       <c r="G133" t="s">
         <v>4</v>
@@ -7552,19 +7550,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C134" t="s">
         <v>1220</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>1221</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>1222</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1223</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1224</v>
       </c>
       <c r="G134" t="s">
         <v>10</v>
@@ -7575,19 +7573,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C135" t="s">
         <v>1215</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>1216</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>1217</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>1218</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1219</v>
       </c>
       <c r="G135" t="s">
         <v>37</v>
@@ -7598,19 +7596,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C136" t="s">
         <v>1210</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>1211</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>1212</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>1213</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1214</v>
       </c>
       <c r="G136" t="s">
         <v>4</v>
@@ -7621,19 +7619,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C137" t="s">
         <v>1206</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E137" t="s">
         <v>1207</v>
       </c>
-      <c r="D137" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>1208</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1209</v>
       </c>
       <c r="G137" t="s">
         <v>4</v>
@@ -7644,19 +7642,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C138" t="s">
         <v>1201</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>1202</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>1203</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>1204</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1205</v>
       </c>
       <c r="G138" t="s">
         <v>16</v>
@@ -7667,19 +7665,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C139" t="s">
         <v>1196</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>1197</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>1198</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>1199</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1200</v>
       </c>
       <c r="G139" t="s">
         <v>4</v>
@@ -7690,19 +7688,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C140" t="s">
         <v>1191</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>1192</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>1193</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>1194</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1195</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>16</v>
@@ -7713,19 +7711,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C141" t="s">
         <v>1186</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>1187</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>1188</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>1189</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1190</v>
       </c>
       <c r="G141" t="s">
         <v>10</v>
@@ -7736,19 +7734,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C142" t="s">
         <v>1181</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>1182</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>1183</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>1184</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1185</v>
       </c>
       <c r="G142" t="s">
         <v>16</v>
@@ -7759,19 +7757,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C143" t="s">
         <v>1176</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>1177</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>1178</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>1179</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1180</v>
       </c>
       <c r="G143" t="s">
         <v>4</v>
@@ -7782,19 +7780,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C144" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D144" t="s">
         <v>1172</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>1173</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>1174</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1175</v>
       </c>
       <c r="G144" t="s">
         <v>4</v>
@@ -7805,19 +7803,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C145" t="s">
         <v>1167</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>1168</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>1169</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>1170</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1171</v>
       </c>
       <c r="G145" t="s">
         <v>10</v>
@@ -7828,19 +7826,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C146" t="s">
         <v>1162</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>1163</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>1164</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>1165</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1166</v>
       </c>
       <c r="G146" t="s">
         <v>16</v>
@@ -7851,19 +7849,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C147" t="s">
         <v>1157</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>1158</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>1159</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>1160</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1161</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -7874,19 +7872,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C148" t="s">
         <v>1152</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>1153</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>1154</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>1155</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1156</v>
       </c>
       <c r="G148" t="s">
         <v>10</v>
@@ -7897,19 +7895,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C149" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D149" t="s">
         <v>1148</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>1149</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>1150</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1151</v>
       </c>
       <c r="G149" t="s">
         <v>4</v>
@@ -7920,19 +7918,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C150" t="s">
         <v>1143</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>1144</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>1145</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>1146</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1147</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -7943,19 +7941,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C151" t="s">
         <v>1138</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>1139</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>1140</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>1141</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1142</v>
       </c>
       <c r="G151" t="s">
         <v>4</v>
@@ -7966,19 +7964,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C152" t="s">
         <v>1133</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>1134</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>1135</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>1136</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1137</v>
       </c>
       <c r="G152" t="s">
         <v>16</v>
@@ -7989,19 +7987,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C153" t="s">
         <v>1128</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>1129</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>1130</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>1131</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1132</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
@@ -8012,19 +8010,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C154" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D154" t="s">
         <v>1124</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>1125</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>1126</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1127</v>
       </c>
       <c r="G154" t="s">
         <v>10</v>
@@ -8058,19 +8056,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C156" t="s">
         <v>1120</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>1121</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>1122</v>
       </c>
-      <c r="E156" t="s">
-        <v>1123</v>
-      </c>
       <c r="F156" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -8081,19 +8079,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C157" t="s">
         <v>1115</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>1116</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>1117</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>1118</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1119</v>
       </c>
       <c r="G157" t="s">
         <v>4</v>
@@ -8104,19 +8102,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C158" t="s">
         <v>1110</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>1111</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>1112</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>1113</v>
-      </c>
-      <c r="F158" t="s">
-        <v>1114</v>
       </c>
       <c r="G158" t="s">
         <v>10</v>
@@ -8127,19 +8125,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C159" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D159" t="s">
         <v>1106</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>1107</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>1108</v>
-      </c>
-      <c r="F159" t="s">
-        <v>1109</v>
       </c>
       <c r="G159" t="s">
         <v>4</v>
@@ -8150,42 +8148,42 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C160" t="s">
         <v>1104</v>
       </c>
-      <c r="C160" t="s">
-        <v>1105</v>
-      </c>
       <c r="D160" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E160" t="s">
         <v>1063</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>1064</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1065</v>
       </c>
       <c r="G160" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C161" t="s">
         <v>1099</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>1100</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>1101</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>1102</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1103</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
@@ -8196,19 +8194,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C162" t="s">
         <v>1094</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E162" t="s">
         <v>1095</v>
       </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
         <v>1097</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1098</v>
       </c>
       <c r="G162" t="s">
         <v>10</v>
@@ -8219,19 +8217,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C163" t="s">
         <v>1089</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>1090</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>1091</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>1092</v>
-      </c>
-      <c r="F163" t="s">
-        <v>1093</v>
       </c>
       <c r="G163" t="s">
         <v>16</v>
@@ -8242,19 +8240,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C164" t="s">
         <v>1084</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>1085</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>1086</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>1087</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1088</v>
       </c>
       <c r="G164" t="s">
         <v>4</v>
@@ -8288,19 +8286,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C166" t="s">
         <v>1079</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>1080</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>1081</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>1082</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1083</v>
       </c>
       <c r="G166" t="s">
         <v>37</v>
@@ -8311,19 +8309,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C167" t="s">
         <v>1074</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>1075</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>1076</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>1077</v>
-      </c>
-      <c r="F167" t="s">
-        <v>1078</v>
       </c>
       <c r="G167" t="s">
         <v>16</v>
@@ -8334,19 +8332,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C168" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D168" t="s">
         <v>1070</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>1071</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>1072</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1073</v>
       </c>
       <c r="G168" t="s">
         <v>10</v>
@@ -8357,19 +8355,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C169" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D169" t="s">
         <v>1066</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>1067</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>1068</v>
-      </c>
-      <c r="F169" t="s">
-        <v>1069</v>
       </c>
       <c r="G169" t="s">
         <v>10</v>
@@ -8380,19 +8378,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C170" t="s">
         <v>1061</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>1062</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1063</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>1064</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1065</v>
       </c>
       <c r="G170" t="s">
         <v>37</v>
@@ -8403,19 +8401,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C171" t="s">
         <v>1056</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>1057</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>1058</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>1059</v>
-      </c>
-      <c r="F171" t="s">
-        <v>1060</v>
       </c>
       <c r="G171" t="s">
         <v>16</v>
@@ -8426,19 +8424,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C172" t="s">
         <v>1051</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>1052</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>1053</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>1054</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1055</v>
       </c>
       <c r="G172" t="s">
         <v>4</v>
@@ -8449,19 +8447,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C173" t="s">
         <v>1031</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>1032</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>1033</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>1034</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1035</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -8472,19 +8470,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C174" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D174" t="s">
         <v>1027</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>1028</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>1029</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1030</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
@@ -8495,7 +8493,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
@@ -8518,19 +8516,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C176" t="s">
         <v>1021</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>1022</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>1023</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>1024</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1025</v>
       </c>
       <c r="G176" t="s">
         <v>10</v>
@@ -8541,19 +8539,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C177" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D177" t="s">
         <v>1017</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>1018</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>1019</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1020</v>
       </c>
       <c r="G177" t="s">
         <v>10</v>
@@ -8564,19 +8562,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C178" t="s">
         <v>1045</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>1046</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>1047</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>1048</v>
-      </c>
-      <c r="F178" t="s">
-        <v>1049</v>
       </c>
       <c r="G178" t="s">
         <v>4</v>
@@ -8587,19 +8585,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C179" t="s">
         <v>1040</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E179" t="s">
         <v>1041</v>
       </c>
-      <c r="D179" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>1042</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1043</v>
       </c>
       <c r="G179" t="s">
         <v>4</v>
@@ -8610,19 +8608,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C180" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D180" t="s">
         <v>1036</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>1037</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>1038</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1039</v>
       </c>
       <c r="G180" t="s">
         <v>4</v>
@@ -8633,19 +8631,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C181" t="s">
         <v>1012</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>1013</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>1014</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>1015</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1016</v>
       </c>
       <c r="G181" t="s">
         <v>10</v>
@@ -8656,19 +8654,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C182" t="s">
         <v>1007</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>1008</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>1009</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>1010</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1011</v>
       </c>
       <c r="G182" t="s">
         <v>37</v>
@@ -8679,19 +8677,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C183" t="s">
         <v>1002</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>1003</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>1004</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>1005</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1006</v>
       </c>
       <c r="G183" t="s">
         <v>10</v>
@@ -8702,19 +8700,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>996</v>
+      </c>
+      <c r="C184" t="s">
         <v>997</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>998</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>999</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>1000</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1001</v>
       </c>
       <c r="G184" t="s">
         <v>10</v>
@@ -8725,19 +8723,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>991</v>
+      </c>
+      <c r="C185" t="s">
         <v>992</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>993</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>994</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>995</v>
-      </c>
-      <c r="F185" t="s">
-        <v>996</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -8748,19 +8746,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>986</v>
+      </c>
+      <c r="C186" t="s">
         <v>987</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>988</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>989</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>990</v>
-      </c>
-      <c r="F186" t="s">
-        <v>991</v>
       </c>
       <c r="G186" t="s">
         <v>10</v>
@@ -8771,19 +8769,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>981</v>
+      </c>
+      <c r="C187" t="s">
         <v>982</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>983</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>984</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>985</v>
-      </c>
-      <c r="F187" t="s">
-        <v>986</v>
       </c>
       <c r="G187" t="s">
         <v>37</v>
@@ -8794,19 +8792,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>976</v>
+      </c>
+      <c r="C188" t="s">
         <v>977</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>978</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>979</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>980</v>
-      </c>
-      <c r="F188" t="s">
-        <v>981</v>
       </c>
       <c r="G188" t="s">
         <v>10</v>
@@ -8817,19 +8815,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>971</v>
+      </c>
+      <c r="C189" t="s">
         <v>972</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>973</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>974</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>975</v>
-      </c>
-      <c r="F189" t="s">
-        <v>976</v>
       </c>
       <c r="G189" t="s">
         <v>4</v>
@@ -8840,19 +8838,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C190" t="s">
+        <v>967</v>
+      </c>
+      <c r="D190" t="s">
         <v>968</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>969</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>970</v>
-      </c>
-      <c r="F190" t="s">
-        <v>971</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -8863,19 +8861,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>962</v>
+      </c>
+      <c r="C191" t="s">
         <v>963</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>964</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>965</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>966</v>
-      </c>
-      <c r="F191" t="s">
-        <v>967</v>
       </c>
       <c r="G191" t="s">
         <v>37</v>
@@ -8886,19 +8884,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>957</v>
+      </c>
+      <c r="C192" t="s">
         <v>958</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>959</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>960</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>961</v>
-      </c>
-      <c r="F192" t="s">
-        <v>962</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -8909,19 +8907,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>952</v>
+      </c>
+      <c r="C193" t="s">
         <v>953</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>954</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>955</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>956</v>
-      </c>
-      <c r="F193" t="s">
-        <v>957</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -8932,19 +8930,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>947</v>
+      </c>
+      <c r="C194" t="s">
         <v>948</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>949</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>950</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>951</v>
-      </c>
-      <c r="F194" t="s">
-        <v>952</v>
       </c>
       <c r="G194" t="s">
         <v>16</v>
@@ -8978,19 +8976,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>942</v>
+      </c>
+      <c r="C196" t="s">
         <v>943</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>944</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>945</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>946</v>
-      </c>
-      <c r="F196" t="s">
-        <v>947</v>
       </c>
       <c r="G196" t="s">
         <v>37</v>
@@ -9001,19 +8999,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>937</v>
+      </c>
+      <c r="C197" t="s">
         <v>938</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>939</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>940</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>941</v>
-      </c>
-      <c r="F197" t="s">
-        <v>942</v>
       </c>
       <c r="G197" t="s">
         <v>10</v>
@@ -9024,19 +9022,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>932</v>
+      </c>
+      <c r="C198" t="s">
         <v>933</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>934</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>935</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>936</v>
-      </c>
-      <c r="F198" t="s">
-        <v>937</v>
       </c>
       <c r="G198" t="s">
         <v>16</v>
@@ -9047,19 +9045,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>927</v>
+      </c>
+      <c r="C199" t="s">
         <v>928</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>929</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>930</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>931</v>
-      </c>
-      <c r="F199" t="s">
-        <v>932</v>
       </c>
       <c r="G199" t="s">
         <v>10</v>
@@ -9070,19 +9068,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C200" t="s">
+        <v>923</v>
+      </c>
+      <c r="D200" t="s">
         <v>924</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>925</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>926</v>
-      </c>
-      <c r="F200" t="s">
-        <v>927</v>
       </c>
       <c r="G200" t="s">
         <v>10</v>
@@ -9093,19 +9091,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>918</v>
+      </c>
+      <c r="C201" t="s">
         <v>919</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>920</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>921</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>922</v>
-      </c>
-      <c r="F201" t="s">
-        <v>923</v>
       </c>
       <c r="G201" t="s">
         <v>16</v>
@@ -9116,19 +9114,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>913</v>
+      </c>
+      <c r="C202" t="s">
         <v>914</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>915</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>916</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>917</v>
-      </c>
-      <c r="F202" t="s">
-        <v>918</v>
       </c>
       <c r="G202" t="s">
         <v>4</v>
@@ -9139,19 +9137,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>908</v>
+      </c>
+      <c r="C203" t="s">
         <v>909</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>910</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>911</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>912</v>
-      </c>
-      <c r="F203" t="s">
-        <v>913</v>
       </c>
       <c r="G203" t="s">
         <v>4</v>
@@ -9162,19 +9160,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>903</v>
+      </c>
+      <c r="C204" t="s">
         <v>904</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>905</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>906</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>907</v>
-      </c>
-      <c r="F204" t="s">
-        <v>908</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
@@ -9185,19 +9183,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>898</v>
+      </c>
+      <c r="C205" t="s">
         <v>899</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>900</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>901</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>902</v>
-      </c>
-      <c r="F205" t="s">
-        <v>903</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
@@ -9208,19 +9206,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>893</v>
+      </c>
+      <c r="C206" t="s">
         <v>894</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>895</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>896</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>897</v>
-      </c>
-      <c r="F206" t="s">
-        <v>898</v>
       </c>
       <c r="G206" t="s">
         <v>4</v>
@@ -9231,19 +9229,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C207" t="s">
+        <v>770</v>
+      </c>
+      <c r="D207" t="s">
         <v>771</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>772</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>773</v>
-      </c>
-      <c r="F207" t="s">
-        <v>774</v>
       </c>
       <c r="G207" t="s">
         <v>37</v>
@@ -9254,19 +9252,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>887</v>
+      </c>
+      <c r="C208" t="s">
         <v>888</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>889</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>890</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>891</v>
-      </c>
-      <c r="F208" t="s">
-        <v>892</v>
       </c>
       <c r="G208" t="s">
         <v>10</v>
@@ -9277,19 +9275,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>882</v>
+      </c>
+      <c r="C209" t="s">
         <v>883</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>884</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>885</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>886</v>
-      </c>
-      <c r="F209" t="s">
-        <v>887</v>
       </c>
       <c r="G209" t="s">
         <v>37</v>
@@ -9300,19 +9298,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C210" t="s">
+        <v>878</v>
+      </c>
+      <c r="D210" t="s">
         <v>879</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>880</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>881</v>
-      </c>
-      <c r="F210" t="s">
-        <v>882</v>
       </c>
       <c r="G210" t="s">
         <v>37</v>
@@ -9323,19 +9321,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>873</v>
+      </c>
+      <c r="C211" t="s">
         <v>874</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>875</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>876</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>877</v>
-      </c>
-      <c r="F211" t="s">
-        <v>878</v>
       </c>
       <c r="G211" t="s">
         <v>37</v>
@@ -9346,19 +9344,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>868</v>
+      </c>
+      <c r="C212" t="s">
         <v>869</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>870</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>871</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>872</v>
-      </c>
-      <c r="F212" t="s">
-        <v>873</v>
       </c>
       <c r="G212" t="s">
         <v>4</v>
@@ -9369,19 +9367,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C213" t="s">
+        <v>864</v>
+      </c>
+      <c r="D213" t="s">
         <v>865</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>866</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>867</v>
-      </c>
-      <c r="F213" t="s">
-        <v>868</v>
       </c>
       <c r="G213" t="s">
         <v>10</v>
@@ -9392,7 +9390,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
@@ -9415,19 +9413,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>859</v>
+      </c>
+      <c r="C215" t="s">
         <v>860</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>861</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>862</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>863</v>
-      </c>
-      <c r="F215" t="s">
-        <v>864</v>
       </c>
       <c r="G215" t="s">
         <v>10</v>
@@ -9438,19 +9436,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>854</v>
+      </c>
+      <c r="C216" t="s">
         <v>855</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>856</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>857</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>858</v>
-      </c>
-      <c r="F216" t="s">
-        <v>859</v>
       </c>
       <c r="G216" t="s">
         <v>37</v>
@@ -9461,19 +9459,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C217" t="s">
+        <v>770</v>
+      </c>
+      <c r="D217" t="s">
         <v>771</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>772</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>773</v>
-      </c>
-      <c r="F217" t="s">
-        <v>774</v>
       </c>
       <c r="G217" t="s">
         <v>4</v>
@@ -9484,19 +9482,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>848</v>
+      </c>
+      <c r="C218" t="s">
         <v>849</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>850</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>851</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>852</v>
-      </c>
-      <c r="F218" t="s">
-        <v>853</v>
       </c>
       <c r="G218" t="s">
         <v>4</v>
@@ -9507,19 +9505,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>843</v>
+      </c>
+      <c r="C219" t="s">
         <v>844</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>845</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>846</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>847</v>
-      </c>
-      <c r="F219" t="s">
-        <v>848</v>
       </c>
       <c r="G219" t="s">
         <v>10</v>
@@ -9530,19 +9528,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C220" t="s">
+        <v>839</v>
+      </c>
+      <c r="D220" t="s">
         <v>840</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>841</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>842</v>
-      </c>
-      <c r="F220" t="s">
-        <v>843</v>
       </c>
       <c r="G220" t="s">
         <v>37</v>
@@ -9553,19 +9551,19 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>834</v>
+      </c>
+      <c r="C221" t="s">
         <v>835</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>836</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>837</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>838</v>
-      </c>
-      <c r="F221" t="s">
-        <v>839</v>
       </c>
       <c r="G221" t="s">
         <v>16</v>
@@ -9576,19 +9574,19 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>829</v>
+      </c>
+      <c r="C222" t="s">
         <v>830</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>831</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>832</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>833</v>
-      </c>
-      <c r="F222" t="s">
-        <v>834</v>
       </c>
       <c r="G222" t="s">
         <v>37</v>
@@ -9599,19 +9597,19 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>824</v>
+      </c>
+      <c r="C223" t="s">
         <v>825</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>826</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>827</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>828</v>
-      </c>
-      <c r="F223" t="s">
-        <v>829</v>
       </c>
       <c r="G223" t="s">
         <v>4</v>
@@ -9622,7 +9620,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C224" t="s">
         <v>43</v>
@@ -9645,19 +9643,19 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>819</v>
+      </c>
+      <c r="C225" t="s">
         <v>820</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>821</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>822</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>823</v>
-      </c>
-      <c r="F225" t="s">
-        <v>824</v>
       </c>
       <c r="G225" t="s">
         <v>16</v>
@@ -9668,19 +9666,19 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>814</v>
+      </c>
+      <c r="C226" t="s">
         <v>815</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>816</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>817</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>818</v>
-      </c>
-      <c r="F226" t="s">
-        <v>819</v>
       </c>
       <c r="G226" t="s">
         <v>4</v>
@@ -9691,19 +9689,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C227" t="s">
+        <v>770</v>
+      </c>
+      <c r="D227" t="s">
         <v>771</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>772</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>773</v>
-      </c>
-      <c r="F227" t="s">
-        <v>774</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -9714,19 +9712,19 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>808</v>
+      </c>
+      <c r="C228" t="s">
         <v>809</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>810</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>811</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>812</v>
-      </c>
-      <c r="F228" t="s">
-        <v>813</v>
       </c>
       <c r="G228" t="s">
         <v>37</v>
@@ -9737,19 +9735,19 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>803</v>
+      </c>
+      <c r="C229" t="s">
         <v>804</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>805</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>806</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>807</v>
-      </c>
-      <c r="F229" t="s">
-        <v>808</v>
       </c>
       <c r="G229" t="s">
         <v>4</v>
@@ -9760,19 +9758,19 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C230" t="s">
+        <v>799</v>
+      </c>
+      <c r="D230" t="s">
         <v>800</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>801</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>802</v>
-      </c>
-      <c r="F230" t="s">
-        <v>803</v>
       </c>
       <c r="G230" t="s">
         <v>4</v>
@@ -9783,19 +9781,19 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>794</v>
+      </c>
+      <c r="C231" t="s">
         <v>795</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>796</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>797</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>798</v>
-      </c>
-      <c r="F231" t="s">
-        <v>799</v>
       </c>
       <c r="G231" t="s">
         <v>16</v>
@@ -9806,19 +9804,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>789</v>
+      </c>
+      <c r="C232" t="s">
         <v>790</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>791</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>792</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>793</v>
-      </c>
-      <c r="F232" t="s">
-        <v>794</v>
       </c>
       <c r="G232" t="s">
         <v>37</v>
@@ -9829,19 +9827,19 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>784</v>
+      </c>
+      <c r="C233" t="s">
         <v>785</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>786</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>787</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>788</v>
-      </c>
-      <c r="F233" t="s">
-        <v>789</v>
       </c>
       <c r="G233" t="s">
         <v>4</v>
@@ -9852,19 +9850,19 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>779</v>
+      </c>
+      <c r="C234" t="s">
         <v>780</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>781</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>782</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>783</v>
-      </c>
-      <c r="F234" t="s">
-        <v>784</v>
       </c>
       <c r="G234" t="s">
         <v>37</v>
@@ -9875,19 +9873,19 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>774</v>
+      </c>
+      <c r="C235" t="s">
+        <v>776</v>
+      </c>
+      <c r="D235" t="s">
         <v>775</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" t="s">
         <v>777</v>
       </c>
-      <c r="D235" t="s">
-        <v>776</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>778</v>
-      </c>
-      <c r="F235" t="s">
-        <v>779</v>
       </c>
       <c r="G235" t="s">
         <v>4</v>
@@ -9898,19 +9896,19 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>769</v>
+      </c>
+      <c r="C236" t="s">
         <v>770</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>771</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>772</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>773</v>
-      </c>
-      <c r="F236" t="s">
-        <v>774</v>
       </c>
       <c r="G236" t="s">
         <v>16</v>
@@ -9921,19 +9919,19 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>764</v>
+      </c>
+      <c r="C237" t="s">
         <v>765</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>766</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>767</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>768</v>
-      </c>
-      <c r="F237" t="s">
-        <v>769</v>
       </c>
       <c r="G237" t="s">
         <v>4</v>
@@ -9944,19 +9942,19 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>759</v>
+      </c>
+      <c r="C238" t="s">
         <v>760</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>761</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>762</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>763</v>
-      </c>
-      <c r="F238" t="s">
-        <v>764</v>
       </c>
       <c r="G238" t="s">
         <v>4</v>
@@ -9967,7 +9965,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C239" t="s">
         <v>47</v>
@@ -9990,19 +9988,19 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C240" t="s">
+        <v>755</v>
+      </c>
+      <c r="D240" t="s">
         <v>756</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>757</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>758</v>
-      </c>
-      <c r="F240" t="s">
-        <v>759</v>
       </c>
       <c r="G240" t="s">
         <v>10</v>
@@ -10013,19 +10011,19 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>750</v>
+      </c>
+      <c r="C241" t="s">
         <v>751</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>752</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>753</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>754</v>
-      </c>
-      <c r="F241" t="s">
-        <v>755</v>
       </c>
       <c r="G241" t="s">
         <v>37</v>
@@ -10036,19 +10034,19 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>745</v>
+      </c>
+      <c r="C242" t="s">
         <v>746</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>747</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>748</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>749</v>
-      </c>
-      <c r="F242" t="s">
-        <v>750</v>
       </c>
       <c r="G242" t="s">
         <v>10</v>
@@ -10059,19 +10057,19 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>740</v>
+      </c>
+      <c r="C243" t="s">
         <v>741</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>742</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>743</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>744</v>
-      </c>
-      <c r="F243" t="s">
-        <v>745</v>
       </c>
       <c r="G243" t="s">
         <v>10</v>
@@ -10082,19 +10080,19 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>736</v>
+      </c>
+      <c r="C244" t="s">
         <v>737</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>738</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>739</v>
       </c>
-      <c r="E244" t="s">
-        <v>740</v>
-      </c>
       <c r="F244" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G244" t="s">
         <v>37</v>
@@ -10105,19 +10103,19 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>731</v>
+      </c>
+      <c r="C245" t="s">
         <v>732</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>733</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>734</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>735</v>
-      </c>
-      <c r="F245" t="s">
-        <v>736</v>
       </c>
       <c r="G245" t="s">
         <v>10</v>
@@ -10128,19 +10126,19 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>726</v>
+      </c>
+      <c r="C246" t="s">
         <v>727</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>728</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>729</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>730</v>
-      </c>
-      <c r="F246" t="s">
-        <v>731</v>
       </c>
       <c r="G246" t="s">
         <v>37</v>
@@ -10151,16 +10149,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>722</v>
+      </c>
+      <c r="C247" t="s">
         <v>723</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>724</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>725</v>
-      </c>
-      <c r="E247" t="s">
-        <v>726</v>
       </c>
       <c r="G247" t="s">
         <v>37</v>
@@ -10171,19 +10169,19 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>717</v>
+      </c>
+      <c r="C248" t="s">
         <v>718</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>719</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>720</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>721</v>
-      </c>
-      <c r="F248" t="s">
-        <v>722</v>
       </c>
       <c r="G248" t="s">
         <v>10</v>
@@ -10194,19 +10192,19 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>713</v>
+      </c>
+      <c r="C249" t="s">
         <v>714</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>715</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>716</v>
       </c>
-      <c r="E249" t="s">
-        <v>717</v>
-      </c>
       <c r="F249" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G249" t="s">
         <v>10</v>
@@ -10217,19 +10215,19 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>708</v>
+      </c>
+      <c r="C250" t="s">
         <v>709</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>710</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>711</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>712</v>
-      </c>
-      <c r="F250" t="s">
-        <v>713</v>
       </c>
       <c r="G250" t="s">
         <v>37</v>
@@ -10240,19 +10238,19 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>703</v>
+      </c>
+      <c r="C251" t="s">
         <v>704</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>705</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>706</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>707</v>
-      </c>
-      <c r="F251" t="s">
-        <v>708</v>
       </c>
       <c r="G251" t="s">
         <v>10</v>
@@ -10263,19 +10261,19 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>699</v>
+      </c>
+      <c r="C252" t="s">
         <v>700</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>701</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>702</v>
       </c>
-      <c r="E252" t="s">
-        <v>703</v>
-      </c>
       <c r="F252" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G252" t="s">
         <v>37</v>
@@ -10286,19 +10284,19 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>694</v>
+      </c>
+      <c r="C253" t="s">
         <v>695</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>696</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>697</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>698</v>
-      </c>
-      <c r="F253" t="s">
-        <v>699</v>
       </c>
       <c r="G253" t="s">
         <v>10</v>
@@ -10309,19 +10307,19 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>689</v>
+      </c>
+      <c r="C254" t="s">
         <v>690</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>691</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>692</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>693</v>
-      </c>
-      <c r="F254" t="s">
-        <v>694</v>
       </c>
       <c r="G254" t="s">
         <v>37</v>
@@ -10332,19 +10330,19 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>684</v>
+      </c>
+      <c r="C255" t="s">
         <v>685</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>686</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>687</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>688</v>
-      </c>
-      <c r="F255" t="s">
-        <v>689</v>
       </c>
       <c r="G255" t="s">
         <v>4</v>
@@ -10355,19 +10353,19 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C256" t="s">
+        <v>565</v>
+      </c>
+      <c r="D256" t="s">
         <v>566</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>567</v>
       </c>
-      <c r="E256" t="s">
-        <v>568</v>
-      </c>
       <c r="F256" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G256" t="s">
         <v>37</v>
@@ -10378,42 +10376,42 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>678</v>
+      </c>
+      <c r="C257" t="s">
         <v>679</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>680</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>681</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>682</v>
-      </c>
-      <c r="F257" t="s">
-        <v>683</v>
       </c>
       <c r="G257" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>673</v>
+      </c>
+      <c r="C258" t="s">
         <v>674</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>675</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>676</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>677</v>
-      </c>
-      <c r="F258" t="s">
-        <v>678</v>
       </c>
       <c r="G258" t="s">
         <v>4</v>
@@ -10424,19 +10422,19 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>668</v>
+      </c>
+      <c r="C259" t="s">
         <v>669</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>670</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>671</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>672</v>
-      </c>
-      <c r="F259" t="s">
-        <v>673</v>
       </c>
       <c r="G259" t="s">
         <v>10</v>
@@ -10447,19 +10445,19 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>663</v>
+      </c>
+      <c r="C260" t="s">
         <v>664</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>665</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>666</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>667</v>
-      </c>
-      <c r="F260" t="s">
-        <v>668</v>
       </c>
       <c r="G260" t="s">
         <v>10</v>
@@ -10470,19 +10468,19 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>658</v>
+      </c>
+      <c r="C261" t="s">
         <v>659</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>660</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>661</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>662</v>
-      </c>
-      <c r="F261" t="s">
-        <v>663</v>
       </c>
       <c r="G261" t="s">
         <v>10</v>
@@ -10493,19 +10491,19 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>654</v>
+      </c>
+      <c r="C262" t="s">
         <v>655</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>656</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>657</v>
       </c>
-      <c r="E262" t="s">
-        <v>658</v>
-      </c>
       <c r="F262" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G262" t="s">
         <v>4</v>
@@ -10516,19 +10514,19 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>649</v>
+      </c>
+      <c r="C263" t="s">
         <v>650</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>651</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>652</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>653</v>
-      </c>
-      <c r="F263" t="s">
-        <v>654</v>
       </c>
       <c r="G263" t="s">
         <v>16</v>
@@ -10539,19 +10537,19 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>644</v>
+      </c>
+      <c r="C264" t="s">
         <v>645</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>646</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>647</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>648</v>
-      </c>
-      <c r="F264" t="s">
-        <v>649</v>
       </c>
       <c r="G264" t="s">
         <v>10</v>
@@ -10562,19 +10560,19 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>639</v>
+      </c>
+      <c r="C265" t="s">
         <v>640</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>641</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>642</v>
       </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>643</v>
-      </c>
-      <c r="F265" t="s">
-        <v>644</v>
       </c>
       <c r="G265" t="s">
         <v>37</v>
@@ -10585,19 +10583,19 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>634</v>
+      </c>
+      <c r="C266" t="s">
         <v>635</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>636</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>637</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>638</v>
-      </c>
-      <c r="F266" t="s">
-        <v>639</v>
       </c>
       <c r="G266" t="s">
         <v>4</v>
@@ -10608,19 +10606,19 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>629</v>
+      </c>
+      <c r="C267" t="s">
         <v>630</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>631</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>632</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>633</v>
-      </c>
-      <c r="F267" t="s">
-        <v>634</v>
       </c>
       <c r="G267" t="s">
         <v>37</v>
@@ -10631,19 +10629,19 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>624</v>
+      </c>
+      <c r="C268" t="s">
         <v>625</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>626</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>627</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>628</v>
-      </c>
-      <c r="F268" t="s">
-        <v>629</v>
       </c>
       <c r="G268" t="s">
         <v>37</v>
@@ -10654,19 +10652,19 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>619</v>
+      </c>
+      <c r="C269" t="s">
         <v>620</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>621</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>622</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>623</v>
-      </c>
-      <c r="F269" t="s">
-        <v>624</v>
       </c>
       <c r="G269" t="s">
         <v>37</v>
@@ -10677,19 +10675,19 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>614</v>
+      </c>
+      <c r="C270" t="s">
         <v>615</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>616</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>617</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>618</v>
-      </c>
-      <c r="F270" t="s">
-        <v>619</v>
       </c>
       <c r="G270" t="s">
         <v>10</v>
@@ -10700,19 +10698,19 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>609</v>
+      </c>
+      <c r="C271" t="s">
         <v>610</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>611</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>612</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>613</v>
-      </c>
-      <c r="F271" t="s">
-        <v>614</v>
       </c>
       <c r="G271" t="s">
         <v>10</v>
@@ -10723,19 +10721,19 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>604</v>
+      </c>
+      <c r="C272" t="s">
         <v>605</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>606</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>607</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>608</v>
-      </c>
-      <c r="F272" t="s">
-        <v>609</v>
       </c>
       <c r="G272" t="s">
         <v>37</v>
@@ -10746,19 +10744,19 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>599</v>
+      </c>
+      <c r="C273" t="s">
         <v>600</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>601</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>602</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>603</v>
-      </c>
-      <c r="F273" t="s">
-        <v>604</v>
       </c>
       <c r="G273" t="s">
         <v>10</v>
@@ -10769,19 +10767,19 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>594</v>
+      </c>
+      <c r="C274" t="s">
         <v>595</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>596</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>597</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>598</v>
-      </c>
-      <c r="F274" t="s">
-        <v>599</v>
       </c>
       <c r="G274" t="s">
         <v>37</v>
@@ -10792,19 +10790,19 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>589</v>
+      </c>
+      <c r="C275" t="s">
         <v>590</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>591</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>592</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>593</v>
-      </c>
-      <c r="F275" t="s">
-        <v>594</v>
       </c>
       <c r="G275" t="s">
         <v>4</v>
@@ -10815,19 +10813,19 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>584</v>
+      </c>
+      <c r="C276" t="s">
         <v>585</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>586</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>587</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>588</v>
-      </c>
-      <c r="F276" t="s">
-        <v>589</v>
       </c>
       <c r="G276" t="s">
         <v>10</v>
@@ -10838,19 +10836,19 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>579</v>
+      </c>
+      <c r="C277" t="s">
         <v>580</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>581</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>582</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>583</v>
-      </c>
-      <c r="F277" t="s">
-        <v>584</v>
       </c>
       <c r="G277" t="s">
         <v>37</v>
@@ -10861,19 +10859,19 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
+        <v>574</v>
+      </c>
+      <c r="C278" t="s">
         <v>575</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>576</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>577</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>578</v>
-      </c>
-      <c r="F278" t="s">
-        <v>579</v>
       </c>
       <c r="G278" t="s">
         <v>4</v>
@@ -10884,19 +10882,19 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>569</v>
+      </c>
+      <c r="C279" t="s">
         <v>570</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>571</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>572</v>
       </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>573</v>
-      </c>
-      <c r="F279" t="s">
-        <v>574</v>
       </c>
       <c r="G279" t="s">
         <v>37</v>
@@ -10907,19 +10905,19 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
+        <v>564</v>
+      </c>
+      <c r="C280" t="s">
         <v>565</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>566</v>
       </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>567</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>568</v>
-      </c>
-      <c r="F280" t="s">
-        <v>569</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -10930,19 +10928,19 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>559</v>
+      </c>
+      <c r="C281" t="s">
         <v>560</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>561</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>562</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>563</v>
-      </c>
-      <c r="F281" t="s">
-        <v>564</v>
       </c>
       <c r="G281" t="s">
         <v>37</v>
@@ -10953,19 +10951,19 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
+        <v>554</v>
+      </c>
+      <c r="C282" t="s">
         <v>555</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>556</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>557</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>558</v>
-      </c>
-      <c r="F282" t="s">
-        <v>559</v>
       </c>
       <c r="G282" t="s">
         <v>37</v>
@@ -10973,15 +10971,17 @@
     </row>
   </sheetData>
   <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G282" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
-    <filterColumn colId="1">
+    <filterColumn colId="4">
       <filters>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <x14:filter val="¿Cuál de las siguientes afirmaciones describe mejor el propósito de la norma ISO/IEC 20000?"/>
-            <x14:filter val="En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de_x000a_C. ISO/IEC 20000 establece requisitos para la gestión de servicios de TI, asegurando que se entreguen servicios de calidad que cumplan con las_x000a_B. ISO/IEC 27001 establece requisitos para la gestión de la seguridad de la información, asegurando que la información confidencial esté protegida de_x000a_En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?"/>
+            <x14:filter val="C. CREATE"/>
+            <x14:filter val="C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y_x000a_C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y_x000a_C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware."/>
+            <x14:filter val="C. Un proceso de creación de presupuestos adecuado."/>
           </mc:Choice>
           <mc:Fallback>
-            <filter val="¿Cuál de las siguientes afirmaciones describe mejor el propósito de la norma ISO/IEC 20000?"/>
+            <filter val="C. CREATE"/>
+            <filter val="C. Un proceso de creación de presupuestos adecuado."/>
           </mc:Fallback>
         </mc:AlternateContent>
       </filters>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DC\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GODC\Downloads\test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6895F-73AC-4999-A0B3-C51D590DF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5079192-8F99-43CE-AA35-677B30DD1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0F533165-8C70-4985-AF35-95D11CD11D78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F533165-8C70-4985-AF35-95D11CD11D78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1354">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
     <t>En PHP, ¿Qué son las funciones de flecha?</t>
   </si>
   <si>
+    <t>Funciones que se utilizan para trabajar con fechas.</t>
+  </si>
+  <si>
     <t>Funciones que se utilizan para realizar operaciones matemáticas</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t>Pregunta</t>
   </si>
   <si>
+    <t>En el patrón MVC, el modelo es responsable de gestionar los datos y la lógica de negocio de la aplicación. Complete la afirmación: En MVC, el modelo notifica a la sobre cualquier cambio de datos para actualizar la interfaz de usuario.</t>
+  </si>
+  <si>
     <t>A. vista</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
     <t>D. usuario</t>
   </si>
   <si>
+    <t>En PHP, la función se utiliza para incluir el contenido de un archivo externo en el script actual, mientras que se utiliza para incluir el archivo sólo si no ha sido incluido previamente.</t>
+  </si>
+  <si>
     <t>A. include / require_once</t>
   </si>
   <si>
@@ -192,6 +201,9 @@
     <t>D. require_once / include</t>
   </si>
   <si>
+    <t>Para manejar errores en PHP, permite manejar excepciones que se lanzan durante la ejecución del código, mientras que muestra los errores y advertencias en la página web durante el desarrollo.</t>
+  </si>
+  <si>
     <t>A. try...catch / display_errors</t>
   </si>
   <si>
@@ -204,6 +216,9 @@
     <t>D. set_error_handler / display_errors</t>
   </si>
   <si>
+    <t>El patrón define una interfaz para crear un objeto, pero deja a las subclases la responsabilidad de instanciar el objeto, mientras que proporciona una forma de encapsular un grupo de objetos relacionados o dependientes.</t>
+  </si>
+  <si>
     <t>A. Abstract Factory / Composite</t>
   </si>
   <si>
@@ -216,6 +231,12 @@
     <t>D. Prototype / Bridge</t>
   </si>
   <si>
+    <t>S/R</t>
+  </si>
+  <si>
+    <t>Para lograr la interoperabilidad entre servicios en una arquitectura SOA, se utiliza para estandarizar la comunicación entre diferentes plataformas, mientras que se usa para descubrir y gestionar servicios.</t>
+  </si>
+  <si>
     <t>A. SOAP / Service Registry</t>
   </si>
   <si>
@@ -228,6 +249,9 @@
     <t>D. UDDI / Service Bus</t>
   </si>
   <si>
+    <t>En una arquitectura de microservicios, un es un servicio autónomo que se centra en una única responsabilidad, mientras que se encarga de la comunicación entre estos servicios.</t>
+  </si>
+  <si>
     <t>A. Service / Service Bus</t>
   </si>
   <si>
@@ -255,6 +279,9 @@
     <t>D. Retry / Event-Driven</t>
   </si>
   <si>
+    <t>En la arquitectura de SOA en la nube, proporciona una plataforma para desplegar y gestionar aplicaciones como servicios, mientras que permite escalar aplicaciones y servicios en función de la demanda.</t>
+  </si>
+  <si>
     <t>A. PaaS / IaaS</t>
   </si>
   <si>
@@ -267,6 +294,9 @@
     <t>D. FaaS / PaaS</t>
   </si>
   <si>
+    <t>Para asegurar la interoperabilidad entre servicios en la nube, el uso de facilita la comunicación estandarizada, mientras que ayuda a gestionar y descubrir servicios.</t>
+  </si>
+  <si>
     <t>A. REST / Service Registry</t>
   </si>
   <si>
@@ -279,6 +309,9 @@
     <t>D. JSON / API Gateway</t>
   </si>
   <si>
+    <t>Para crear un mashup, es común utilizar para combinar datos de diferentes fuentes web, además de para permitir que las aplicaciones web interactúen con servicios de terceros.</t>
+  </si>
+  <si>
     <t>A. APIs / SOAP</t>
   </si>
   <si>
@@ -319,6 +352,9 @@
   </si>
   <si>
     <t>D. Desarrollo, Ejecución, Mantenimiento, Eliminación</t>
+  </si>
+  <si>
+    <t>Al desarrollar un mashup, es fundamental utilizar herramientas adecuadas para la manipulación y visualización de datos. En su desarrollo, se utiliza para extraer y manipular datos de servicios web, además de para visualizar esos datos en una interfaz de usuario.</t>
   </si>
   <si>
     <t>A. APIs / HTML</t>
@@ -1078,6 +1114,11 @@
     <t>D. El uso de software para combinar múltiples servidores físicos en una única entidad lógica, facilitando la gestión y distribución de cargas de trabajo.</t>
   </si>
   <si>
+    <t>C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y
+C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y
+C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware.</t>
+  </si>
+  <si>
     <t>¿Cuál de las siguientes afirmaciones describe mejor la diferencia entre una plataforma de hardware y una plataforma de software?</t>
   </si>
   <si>
@@ -1582,6 +1623,9 @@
     <t>D. Permitir la autenticación anónima</t>
   </si>
   <si>
+    <t>Complete la siguiente oración: "Para proteger una red Wi-Fi, es importante deshabilitar la del , para evitar que el nombre de la red sea para todos."</t>
+  </si>
+  <si>
     <t>A. transmisión, WPA, seguro</t>
   </si>
   <si>
@@ -1594,6 +1638,9 @@
     <t>D. difusión, WEP, seguro</t>
   </si>
   <si>
+    <t>Complete la siguiente oración: "La técnica de utiliza una clave para cifrar datos, mientras que la técnica de cifrado utiliza una clave pública y una clave privada</t>
+  </si>
+  <si>
     <t>A. hashing, pública, asimétrico</t>
   </si>
   <si>
@@ -1606,6 +1653,9 @@
     <t>D. firma digital, privada, hashing</t>
   </si>
   <si>
+    <t>Complete la siguiente oración: "La de la información garantiza que solo las personas tengan acceso, y la asegura que la información está completa y sin alteraciones."</t>
+  </si>
+  <si>
     <t>A. disponibilidad, autorizadas, integridad</t>
   </si>
   <si>
@@ -1618,6 +1668,9 @@
     <t>D. integridad, legítimas, confidencialidad</t>
   </si>
   <si>
+    <t>Complete la siguiente oración: "La norma ISO/IEC 27001 proporciona un marco para de la información, y ayuda a identificar y gestionar para proteger la de los datos."</t>
+  </si>
+  <si>
     <t>A. la gestión, amenazas, seguridad</t>
   </si>
   <si>
@@ -1630,6 +1683,9 @@
     <t>D. la auditoría, fallos, integridad</t>
   </si>
   <si>
+    <t>Complete la siguiente oración: "El ataque de implica el envío masivo de tráfico a un servidor para hacerlo inaccesible a los usuarios legítimos."</t>
+  </si>
+  <si>
     <t>A. Phishing</t>
   </si>
   <si>
@@ -2305,6 +2361,9 @@
     <t>D. Comunicarse dentro y fuera de la organización</t>
   </si>
   <si>
+    <t>239.El protocolo se basa en la encriptación para garantizar la seguridad en la comunicación de datos sensibles, mientras que permite un anonimato más robusto en la red. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Tor – TLS</t>
   </si>
   <si>
@@ -2317,6 +2376,9 @@
     <t>D. Otway-Rees – Firewall</t>
   </si>
   <si>
+    <t>238.En PHP, la función se utiliza para incluir el contenido de un archivo externo en el script actual, mientras que se utiliza para incluir el archivo sólo si no ha sido incluido previamente.</t>
+  </si>
+  <si>
     <t>¿Qué característica clave diferencia a IoT de otras tecnologías de red?</t>
   </si>
   <si>
@@ -2437,6 +2499,9 @@
     <t>D. Todos los anteriores.</t>
   </si>
   <si>
+    <t>La permite asegurar datos críticos en hardware especializado, mientras que el proporciona medidas avanzadas de seguridad en redes inalámbricas. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Seguridad basada en chips – protocolo WPA</t>
   </si>
   <si>
@@ -2557,6 +2622,9 @@
     <t>D. Arquitectura de microservicios y computación sin servidor.</t>
   </si>
   <si>
+    <t>El supervisa y detecta actividades maliciosas en tiempo real, mientras que un sirve como cebo para desviar a los atacantes. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Honeypot – IDS</t>
   </si>
   <si>
@@ -2632,6 +2700,9 @@
     <t>D. Ninguna de las opciones es correcta.</t>
   </si>
   <si>
+    <t>se puede definir como un framework de generación de código de ASP.NET utilizado en aplicaciones web.</t>
+  </si>
+  <si>
     <t>A. ViewData</t>
   </si>
   <si>
@@ -2674,6 +2745,9 @@
     <t>D. Utilizando exclusivamente hardware de enrutamiento.</t>
   </si>
   <si>
+    <t>209.El protocolo permite una autenticación segura mediante la generación de tickets, mientras que se utiliza para cifrar comunicaciones web. (Seleccione una respuesta</t>
+  </si>
+  <si>
     <t>A. Otway-Rees – Kerberos</t>
   </si>
   <si>
@@ -2809,6 +2883,9 @@
     <t>D. Interconexión de dispositivos para recopilar, transmitir y recibir datos.</t>
   </si>
   <si>
+    <t>Las se utilizan para firmar digitalmente documentos, mientras que el es un sistema jerárquico que gestiona certificados digitales. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Funciones hash – TLS</t>
   </si>
   <si>
@@ -2941,6 +3018,9 @@
     <t>D. Controles de acceso para impedir que el operador haga modificaciones a los programas.</t>
   </si>
   <si>
+    <t>Los estándares de seguridad permiten a las organizaciones implementar que aseguren la y el cumplimiento normativo. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Controles específicos – escalabilidad</t>
   </si>
   <si>
@@ -3118,6 +3198,9 @@
     <t>JavaScript se utiliza para hacer que las páginas web sean interactivas. ¿Cuál es el resultado de la siguiente expresión en JavaScript: typeof null</t>
   </si>
   <si>
+    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación: LINQ es el conjunto de que amplían las capacidades de consulta a la sintaxis del lenguaje .NET, que permite la manipulación de independientemente de la fuente de datos.</t>
+  </si>
+  <si>
     <t>A. instrucciones - información</t>
   </si>
   <si>
@@ -3145,6 +3228,9 @@
     <t>D. Genera una dificultad en la gestión de la caché</t>
   </si>
   <si>
+    <t>El estándar se centra en la gestión de la seguridad de la información, mientras que proporciona controles específicos para sistemas y redes críticas. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. ISO 27001 – NIST 800-53</t>
   </si>
   <si>
@@ -3235,6 +3321,9 @@
     <t>D. ninguna de las opciones</t>
   </si>
   <si>
+    <t>Un ataque de compromete la confidencialidad interceptando comunicaciones privadas, mientras que un ataque de utiliza múltiples sistemas para interrumpir un servicio. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Masquerading – DoS</t>
   </si>
   <si>
@@ -3247,6 +3336,9 @@
     <t>D. Snooping – ransomware</t>
   </si>
   <si>
+    <t>167.¿Qué método se utiliza para combinar múltiples enlaces físicos en un único enlace lógico?</t>
+  </si>
+  <si>
     <t>A. VLAN Trunking</t>
   </si>
   <si>
@@ -3355,6 +3447,9 @@
     <t>A. objetivos y alcances cambiantes</t>
   </si>
   <si>
+    <t>Las amenazas categorizadas como incluyen errores humanos como configuraciones incorrectas, mientras que las abarcan eventos como inundaciones y terremotos. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Errores no intencionados – desastres naturales</t>
   </si>
   <si>
@@ -3409,6 +3504,9 @@
     <t>C. Todos los sistemas operativos que posee y prevé la empresa.</t>
   </si>
   <si>
+    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación: El patrón MVC define al controlador como el archivo que , de tal forma que permite interactuar entre la Vista y el Modelo. En ASP.NET este concepto se ve aplicado mediante archivos dentro del directorio</t>
+  </si>
+  <si>
     <t>A. Contiene la lógica del negocio y maneja las interacciones del usuario - Views</t>
   </si>
   <si>
@@ -3481,6 +3579,9 @@
     <t>D. Las fases son iguales</t>
   </si>
   <si>
+    <t>La se encarga de validar que el usuario con permisos pueda acceder, la garantiza que los datos no sean alterados o manipulados en tránsito, y la asegura que los servicios estén disponibles en todo momento. (Seleccione una respuesta)</t>
+  </si>
+  <si>
     <t>A. Confidencialidad – integridad – disponibilidad</t>
   </si>
   <si>
@@ -3553,6 +3654,9 @@
     <t>D. El método devuelve siempre un array vacío.</t>
   </si>
   <si>
+    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación. El patrón MVC define al como el mapeo de la Base de Datos en la aplicación. En ASP.NET este concepto se ve aplicado mediante archivos dentro del directorio</t>
+  </si>
+  <si>
     <t>A. Modelo - Models</t>
   </si>
   <si>
@@ -3988,122 +4092,26 @@
     <t>Respuesta Correcta</t>
   </si>
   <si>
-    <t>El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: "En MVC, el ….................... se encarga de la presentación de los datos, mientras que el ...................... maneja la lógica de negocio."</t>
-  </si>
-  <si>
-    <t>El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: "En MVC, el ….............. se encarga de la presentación de los datos, mientras que el ….......................... maneja la lógica de negocio."</t>
-  </si>
-  <si>
-    <t>En el patrón MVC, el modelo es responsable de gestionar los datos y la lógica de negocio de la aplicación. Complete la afirmación: En MVC, el modelo notifica a la …......................... sobre cualquier cambio de datos para actualizar la interfaz de usuario.</t>
-  </si>
-  <si>
-    <t>En el patrón MVC, el modelo es responsable de gestionar los datos y la lógica de negocio de la aplicación. Complete la afirmación: En MVC, el modelo notifica a la ….......................... sobre cualquier cambio de datos para actualizar la interfaz de usuario.</t>
-  </si>
-  <si>
-    <t>En PHP, la función …..................... se utiliza para incluir el contenido de un archivo externo en el script actual, mientras que se utiliza para incluir el archivo sólo si no ha sido incluido previamente.</t>
-  </si>
-  <si>
-    <t>Para manejar errores en PHP, …......................... permite manejar excepciones que se lanzan durante la ejecución del código, mientras que ….............................. muestra los errores y advertencias en la página web durante el desarrollo.</t>
-  </si>
-  <si>
-    <t>El patrón …...................... define una interfaz para crear un objeto, pero deja a las subclases la responsabilidad de instanciar el objeto, mientras que …..................... proporciona una forma de encapsular un grupo de objetos relacionados o dependientes.</t>
-  </si>
-  <si>
-    <t>Para lograr la interoperabilidad entre servicios en una arquitectura SOA, se utiliza …...................... para estandarizar la comunicación entre diferentes plataformas, mientras que …..................... se usa para descubrir y gestionar servicios.</t>
-  </si>
-  <si>
-    <t>En una arquitectura de microservicios, un ….............. es un servicio autónomo que se centra en una única responsabilidad, mientras que ….............. se encarga de la comunicación entre estos servicios.</t>
-  </si>
-  <si>
-    <t>En la arquitectura de SOA en la nube, …................... proporciona una plataforma para desplegar y gestionar aplicaciones como servicios, mientras que ….............. permite escalar aplicaciones y servicios en función de la demanda.</t>
-  </si>
-  <si>
-    <t>Para asegurar la interoperabilidad entre servicios en la nube, el uso de …......................... facilita la comunicación estandarizada, mientras que …............... ayuda a gestionar y descubrir servicios.</t>
-  </si>
-  <si>
-    <t>Para crear un mashup, es común utilizar …................ para combinar datos de diferentes fuentes web, además de ….................. para permitir que las aplicaciones web interactúen con servicios de terceros.</t>
-  </si>
-  <si>
-    <t>Al desarrollar un mashup, es fundamental utilizar herramientas adecuadas para la manipulación y visualización de datos. En su desarrollo, ........................... se utiliza para extraer y manipular datos de servicios web, además de ................. para visualizar esos datos en una interfaz de usuario.</t>
-  </si>
-  <si>
-    <t>Complete la siguiente oración: "Para proteger una red Wi-Fi, es importante deshabilitar la …............. Del …................. , para evitar que el nombre de la red sea …................ para todos."</t>
-  </si>
-  <si>
-    <t>Complete la siguiente oración: "La técnica de …................... utiliza una clave ….............. para cifrar datos, mientras que la técnica de cifrado …............... utiliza una clave pública y una clave privada</t>
-  </si>
-  <si>
-    <t>Complete la siguiente oración: "La …............... de la información garantiza que solo las personas ….................. tengan acceso, y la …................. asegura que la información está completa y sin alteraciones."</t>
-  </si>
-  <si>
-    <t>Complete la siguiente oración: "La norma ISO/IEC 27001 proporciona un marco para …................... de la información, y ayuda a identificar y gestionar ….............. para proteger la …................ de los datos."</t>
-  </si>
-  <si>
-    <t>Complete la siguiente oración: "El ataque de …................. implica el envío masivo de tráfico a un servidor para hacerlo inaccesible a los usuarios legítimos."</t>
-  </si>
-  <si>
-    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación. El patrón MVC define al …........... como el mapeo de la Base de Datos en la aplicación. En ASP.NET este concepto se ve aplicado mediante archivos dentro del directorio …............</t>
-  </si>
-  <si>
-    <t>La …................... se encarga de validar que el usuario con permisos pueda acceder, la ............... garantiza que los datos no sean alterados o manipulados en tránsito, y la ............... asegura que los servicios estén disponibles en todo momento. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación: El patrón MVC define al controlador como el archivo que ..........................................................., de tal forma que permite interactuar entre la Vista y el Modelo. En ASP.NET este concepto se ve aplicado mediante archivos dentro del directorio ..........................................</t>
-  </si>
-  <si>
-    <t>Las amenazas categorizadas como …............................. incluyen errores humanos como configuraciones incorrectas, mientras que las …........................... abarcan eventos como inundaciones y terremotos. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>Un ataque de …...................... compromete la confidencialidad interceptando comunicaciones privadas, mientras que un ataque de …....................... utiliza múltiples sistemas para interrumpir un servicio. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>Elija el par de palabras que complete de forma correcta la siguiente afirmación: LINQ es el conjunto de …............. que amplían las capacidades de consulta a la sintaxis del lenguaje .NET, que permite la manipulación de .......................... independientemente de la fuente de datos.</t>
-  </si>
-  <si>
-    <t>El estándar ….................. se centra en la gestión de la seguridad de la información, mientras que …............................ proporciona controles específicos para sistemas y redes críticas. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>Los estándares de seguridad permiten a las organizaciones implementar …........................... que aseguren la ….................... y el cumplimiento normativo. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>Las ….................... se utilizan para firmar digitalmente documentos, mientras que el …...................... es un sistema jerárquico que gestiona certificados digitales. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>….................. se puede definir como un framework de generación de código de ASP.NET utilizado en aplicaciones web.</t>
-  </si>
-  <si>
-    <t>El …............ supervisa y detecta actividades maliciosas en tiempo real, mientras que un …............... sirve como cebo para desviar a los atacantes. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>La ….................... permite asegurar datos críticos en hardware especializado, mientras que el …..................... proporciona medidas avanzadas de seguridad en redes inalámbricas. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>El protocolo …......................... se basa en la encriptación para garantizar la seguridad en la comunicación de datos sensibles, mientras que …..................... permite un anonimato más robusto en la red. (Seleccione una respuesta)</t>
-  </si>
-  <si>
-    <t>El protocolo …..................... permite una autenticación segura mediante la generación de tickets, mientras que se utiliza para cifrar comunicaciones web. (Seleccione una respuesta</t>
-  </si>
-  <si>
-    <t>¿Qué método se utiliza para combinar múltiples enlaces físicos en un único enlace lógico?</t>
-  </si>
-  <si>
-    <t>A. Una forma concisa de escribir funciones anónimas.</t>
-  </si>
-  <si>
-    <t>B. Funciones que se utilizan para trabajar con fechas.</t>
-  </si>
-  <si>
-    <t>En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?</t>
-  </si>
-  <si>
-    <t>C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware.</t>
+    <t>En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de
+C. ISO/IEC 20000 establece requisitos para la gestión de servicios de TI, asegurando que se entreguen servicios de calidad que cumplan con las
+B. ISO/IEC 27001 establece requisitos para la gestión de la seguridad de la información, asegurando que la información confidencial esté protegida de
+En el contexto de un Plan de Operación de Infraestructura de TI, ¿cuál de las siguientes afirmaciones describe mejor el propósito de un plan de operacion?</t>
+  </si>
+  <si>
+    <t>COBIT ofrece un marco de gobernanza y gestión de TI que ayuda a las organizaciones a alinear sus objetivos de TI con sus metas empresariales y a cumplir con regulaciones y estándares.</t>
+  </si>
+  <si>
+    <t>El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: "En MVC, el ….................se encarga de la presentación de los datos, mientras que el ............................... maneja la lógica de negocio."</t>
+  </si>
+  <si>
+    <t>El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: "En MVC, el …..................se encarga de la presentación de los datos, mientras que el ..........................maneja la lógica de negocio."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4119,19 +4127,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4146,14 +4154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4172,9 +4179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4212,7 +4219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4318,7 +4325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4460,7 +4467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4469,19 +4476,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:N282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I288" sqref="I288"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="145.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="163.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,22 +4496,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>1311</v>
+        <v>1345</v>
       </c>
       <c r="D1" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="E1" t="s">
-        <v>1313</v>
+        <v>1347</v>
       </c>
       <c r="F1" t="s">
-        <v>1314</v>
+        <v>1348</v>
       </c>
       <c r="G1" t="s">
-        <v>1315</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4515,19 +4522,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1349</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1350</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4535,22 +4542,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4558,22 +4565,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4581,22 +4588,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4604,22 +4611,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4627,22 +4634,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4650,45 +4657,45 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1316</v>
+        <v>1353</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4696,22 +4703,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1318</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4719,22 +4726,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1320</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4742,45 +4749,45 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1321</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4788,22 +4795,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1323</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4811,22 +4818,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1324</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4834,22 +4841,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4857,22 +4864,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1325</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,22 +4887,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1326</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4903,22 +4910,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1327</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4926,22 +4933,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4949,22 +4956,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4972,22 +4979,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1328</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4995,22 +5002,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5018,22 +5025,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5041,22 +5048,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5064,22 +5071,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5087,22 +5094,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5110,22 +5117,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5133,22 +5140,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5156,22 +5163,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5179,22 +5186,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5202,22 +5209,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5225,22 +5232,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5248,22 +5255,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5271,22 +5278,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5294,22 +5301,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5317,22 +5324,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5340,22 +5347,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5363,22 +5370,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5386,22 +5393,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5409,22 +5416,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5432,22 +5439,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5455,22 +5462,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5478,22 +5485,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5501,22 +5508,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5524,22 +5531,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5547,22 +5554,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5570,22 +5577,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5593,22 +5600,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5616,45 +5623,45 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>37</v>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5662,22 +5669,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5685,22 +5692,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5708,22 +5715,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5731,22 +5738,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
+      </c>
+      <c r="E55" t="s">
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5754,22 +5761,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5777,22 +5784,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F57" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5800,22 +5807,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F58" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5823,22 +5830,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5846,22 +5853,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D60" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E60" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F60" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5869,22 +5876,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E61" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5892,22 +5899,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5915,22 +5922,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C63" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5938,22 +5945,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5961,22 +5968,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5984,22 +5991,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6007,22 +6014,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D67" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6030,22 +6037,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C68" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E68" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6053,22 +6060,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E69" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6076,22 +6083,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F70" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6099,46 +6106,46 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D71" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E71" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1352</v>
+        <v>358</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -6147,22 +6154,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C73" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F73" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6170,22 +6177,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6193,22 +6200,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D75" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E75" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="F75" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6216,22 +6223,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>364</v>
-      </c>
-      <c r="F76" t="s">
-        <v>364</v>
+        <v>377</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1351</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6239,22 +6246,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6262,22 +6269,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F78" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6285,22 +6292,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E79" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F79" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,22 +6315,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D80" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E80" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F80" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6331,22 +6338,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C81" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6354,22 +6361,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D82" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F82" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6377,22 +6384,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F83" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6400,22 +6407,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C84" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D84" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E84" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F84" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6423,22 +6430,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C85" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F85" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6446,22 +6453,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C86" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="D86" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="E86" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6469,22 +6476,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E87" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="F87" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6492,22 +6499,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D88" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="E88" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F88" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6515,22 +6522,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D89" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E89" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="F89" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6538,22 +6545,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C90" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D90" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E90" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F90" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6561,22 +6568,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C91" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="E91" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F91" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6584,22 +6591,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E92" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F92" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6607,22 +6614,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C93" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D93" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6630,22 +6637,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C94" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D94" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E94" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F94" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6653,22 +6660,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D95" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E95" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F95" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G95" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6676,22 +6683,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C96" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D96" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E96" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F96" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6699,22 +6706,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C97" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D97" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="E97" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="F97" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6722,22 +6729,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C98" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D98" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E98" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F98" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6745,22 +6752,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C99" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D99" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E99" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="F99" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6768,22 +6775,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D100" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E100" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="F100" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6791,22 +6798,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D101" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F101" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="G101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6814,22 +6821,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C102" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D102" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E102" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F102" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6837,22 +6844,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C103" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D103" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E103" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F103" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6860,22 +6867,22 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D104" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E104" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="F104" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="G104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6883,22 +6890,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C105" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="D105" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E105" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F105" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6906,22 +6913,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C106" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D106" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E106" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F106" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6929,22 +6936,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1329</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="D107" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E107" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F107" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6952,22 +6959,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1330</v>
+        <v>532</v>
       </c>
       <c r="C108" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="D108" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="E108" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F108" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6975,22 +6982,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1331</v>
+        <v>537</v>
       </c>
       <c r="C109" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="D109" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="E109" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F109" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -6998,22 +7005,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1332</v>
+        <v>542</v>
       </c>
       <c r="C110" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D110" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="E110" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="F110" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7021,22 +7028,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1333</v>
+        <v>547</v>
       </c>
       <c r="C111" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="D111" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="E111" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="F111" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7044,22 +7051,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C112" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D112" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="E112" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="F112" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7067,22 +7074,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C113" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D113" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="E113" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="F113" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7090,22 +7097,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="C114" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="D114" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="E114" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="F114" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7113,22 +7120,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="C115" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="D115" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="E115" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F115" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7136,22 +7143,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>1306</v>
+        <v>1340</v>
       </c>
       <c r="C116" t="s">
-        <v>1307</v>
+        <v>1341</v>
       </c>
       <c r="D116" t="s">
-        <v>1308</v>
+        <v>1342</v>
       </c>
       <c r="E116" t="s">
-        <v>1309</v>
+        <v>1343</v>
       </c>
       <c r="F116" t="s">
-        <v>1310</v>
+        <v>1344</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7159,22 +7166,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="C117" t="s">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="D117" t="s">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="E117" t="s">
-        <v>1304</v>
+        <v>1338</v>
       </c>
       <c r="F117" t="s">
-        <v>1305</v>
+        <v>1339</v>
       </c>
       <c r="G117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7182,22 +7189,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>1296</v>
+        <v>1330</v>
       </c>
       <c r="C118" t="s">
-        <v>1297</v>
+        <v>1331</v>
       </c>
       <c r="D118" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="E118" t="s">
-        <v>1299</v>
+        <v>1333</v>
       </c>
       <c r="F118" t="s">
-        <v>1300</v>
+        <v>1334</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7205,22 +7212,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>1291</v>
+        <v>1325</v>
       </c>
       <c r="C119" t="s">
-        <v>1292</v>
+        <v>1326</v>
       </c>
       <c r="D119" t="s">
-        <v>1293</v>
+        <v>1327</v>
       </c>
       <c r="E119" t="s">
-        <v>1294</v>
+        <v>1328</v>
       </c>
       <c r="F119" t="s">
-        <v>1295</v>
+        <v>1329</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7228,22 +7235,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>1286</v>
+        <v>1320</v>
       </c>
       <c r="C120" t="s">
-        <v>1287</v>
+        <v>1321</v>
       </c>
       <c r="D120" t="s">
-        <v>1288</v>
+        <v>1322</v>
       </c>
       <c r="E120" t="s">
-        <v>1289</v>
+        <v>1323</v>
       </c>
       <c r="F120" t="s">
-        <v>1290</v>
+        <v>1324</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7251,22 +7258,22 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>1281</v>
+        <v>1315</v>
       </c>
       <c r="C121" t="s">
-        <v>1282</v>
+        <v>1316</v>
       </c>
       <c r="D121" t="s">
-        <v>1283</v>
+        <v>1317</v>
       </c>
       <c r="E121" t="s">
-        <v>1284</v>
+        <v>1318</v>
       </c>
       <c r="F121" t="s">
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7274,22 +7281,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1276</v>
+        <v>1310</v>
       </c>
       <c r="C122" t="s">
-        <v>1277</v>
+        <v>1311</v>
       </c>
       <c r="D122" t="s">
-        <v>1278</v>
+        <v>1312</v>
       </c>
       <c r="E122" t="s">
-        <v>1279</v>
+        <v>1313</v>
       </c>
       <c r="F122" t="s">
-        <v>1280</v>
+        <v>1314</v>
       </c>
       <c r="G122" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7297,22 +7304,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>1271</v>
+        <v>1305</v>
       </c>
       <c r="C123" t="s">
-        <v>1272</v>
+        <v>1306</v>
       </c>
       <c r="D123" t="s">
-        <v>1273</v>
+        <v>1307</v>
       </c>
       <c r="E123" t="s">
-        <v>1274</v>
+        <v>1308</v>
       </c>
       <c r="F123" t="s">
-        <v>1275</v>
+        <v>1309</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7320,22 +7327,22 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="C124" t="s">
-        <v>1267</v>
+        <v>1301</v>
       </c>
       <c r="D124" t="s">
-        <v>1268</v>
+        <v>1302</v>
       </c>
       <c r="E124" t="s">
-        <v>1269</v>
+        <v>1303</v>
       </c>
       <c r="F124" t="s">
-        <v>1270</v>
+        <v>1304</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7343,22 +7350,22 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="C125" t="s">
-        <v>1260</v>
+        <v>1294</v>
       </c>
       <c r="D125" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="E125" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="F125" t="s">
-        <v>1263</v>
+        <v>1297</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7366,22 +7373,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>1259</v>
+        <v>1293</v>
       </c>
       <c r="C126" t="s">
-        <v>1260</v>
+        <v>1294</v>
       </c>
       <c r="D126" t="s">
-        <v>1261</v>
+        <v>1295</v>
       </c>
       <c r="E126" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="F126" t="s">
-        <v>1263</v>
+        <v>1297</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7389,22 +7396,22 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>1254</v>
+        <v>1288</v>
       </c>
       <c r="C127" t="s">
-        <v>1255</v>
+        <v>1289</v>
       </c>
       <c r="D127" t="s">
-        <v>1256</v>
+        <v>1290</v>
       </c>
       <c r="E127" t="s">
-        <v>1257</v>
+        <v>1291</v>
       </c>
       <c r="F127" t="s">
-        <v>1258</v>
+        <v>1292</v>
       </c>
       <c r="G127" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7412,22 +7419,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>1249</v>
+        <v>1283</v>
       </c>
       <c r="C128" t="s">
-        <v>1250</v>
+        <v>1284</v>
       </c>
       <c r="D128" t="s">
-        <v>1251</v>
+        <v>1285</v>
       </c>
       <c r="E128" t="s">
-        <v>1252</v>
+        <v>1286</v>
       </c>
       <c r="F128" t="s">
-        <v>1253</v>
+        <v>1287</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7435,22 +7442,22 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>1244</v>
+        <v>1278</v>
       </c>
       <c r="C129" t="s">
-        <v>1245</v>
+        <v>1279</v>
       </c>
       <c r="D129" t="s">
-        <v>1246</v>
+        <v>1280</v>
       </c>
       <c r="E129" t="s">
-        <v>1247</v>
+        <v>1281</v>
       </c>
       <c r="F129" t="s">
-        <v>1248</v>
+        <v>1282</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7458,22 +7465,22 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>1239</v>
+        <v>1273</v>
       </c>
       <c r="C130" t="s">
-        <v>1240</v>
+        <v>1274</v>
       </c>
       <c r="D130" t="s">
-        <v>1241</v>
+        <v>1275</v>
       </c>
       <c r="E130" t="s">
-        <v>1242</v>
+        <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1243</v>
+        <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7481,22 +7488,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>1234</v>
+        <v>1268</v>
       </c>
       <c r="C131" t="s">
-        <v>1235</v>
+        <v>1269</v>
       </c>
       <c r="D131" t="s">
-        <v>1236</v>
+        <v>1270</v>
       </c>
       <c r="E131" t="s">
-        <v>1237</v>
+        <v>1271</v>
       </c>
       <c r="F131" t="s">
-        <v>1238</v>
+        <v>1272</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7504,22 +7511,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>1229</v>
+        <v>1263</v>
       </c>
       <c r="C132" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
       <c r="D132" t="s">
-        <v>1231</v>
+        <v>1265</v>
       </c>
       <c r="E132" t="s">
-        <v>1232</v>
+        <v>1266</v>
       </c>
       <c r="F132" t="s">
-        <v>1233</v>
+        <v>1267</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7527,22 +7534,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
       <c r="C133" t="s">
-        <v>1225</v>
+        <v>1259</v>
       </c>
       <c r="D133" t="s">
-        <v>1226</v>
+        <v>1260</v>
       </c>
       <c r="E133" t="s">
-        <v>1227</v>
+        <v>1261</v>
       </c>
       <c r="F133" t="s">
-        <v>1228</v>
+        <v>1262</v>
       </c>
       <c r="G133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7550,22 +7557,22 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>1219</v>
+        <v>1253</v>
       </c>
       <c r="C134" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="D134" t="s">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="E134" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
       <c r="F134" t="s">
-        <v>1223</v>
+        <v>1257</v>
       </c>
       <c r="G134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7573,22 +7580,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>1214</v>
+        <v>1248</v>
       </c>
       <c r="C135" t="s">
-        <v>1215</v>
+        <v>1249</v>
       </c>
       <c r="D135" t="s">
-        <v>1216</v>
+        <v>1250</v>
       </c>
       <c r="E135" t="s">
-        <v>1217</v>
+        <v>1251</v>
       </c>
       <c r="F135" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7596,22 +7603,22 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>1209</v>
+        <v>1243</v>
       </c>
       <c r="C136" t="s">
-        <v>1210</v>
+        <v>1244</v>
       </c>
       <c r="D136" t="s">
-        <v>1211</v>
+        <v>1245</v>
       </c>
       <c r="E136" t="s">
-        <v>1212</v>
+        <v>1246</v>
       </c>
       <c r="F136" t="s">
-        <v>1213</v>
+        <v>1247</v>
       </c>
       <c r="G136" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7619,22 +7626,22 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1205</v>
+        <v>1239</v>
       </c>
       <c r="C137" t="s">
-        <v>1206</v>
+        <v>1240</v>
       </c>
       <c r="D137" t="s">
-        <v>1212</v>
+        <v>1246</v>
       </c>
       <c r="E137" t="s">
-        <v>1207</v>
+        <v>1241</v>
       </c>
       <c r="F137" t="s">
-        <v>1208</v>
+        <v>1242</v>
       </c>
       <c r="G137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7642,22 +7649,22 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>1200</v>
+        <v>1234</v>
       </c>
       <c r="C138" t="s">
-        <v>1201</v>
+        <v>1235</v>
       </c>
       <c r="D138" t="s">
-        <v>1202</v>
+        <v>1236</v>
       </c>
       <c r="E138" t="s">
-        <v>1203</v>
+        <v>1237</v>
       </c>
       <c r="F138" t="s">
-        <v>1204</v>
+        <v>1238</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7665,22 +7672,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="C139" t="s">
-        <v>1196</v>
+        <v>1230</v>
       </c>
       <c r="D139" t="s">
-        <v>1197</v>
+        <v>1231</v>
       </c>
       <c r="E139" t="s">
-        <v>1198</v>
+        <v>1232</v>
       </c>
       <c r="F139" t="s">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="G139" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7688,22 +7695,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>1190</v>
+        <v>1224</v>
       </c>
       <c r="C140" t="s">
-        <v>1191</v>
+        <v>1225</v>
       </c>
       <c r="D140" t="s">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="E140" t="s">
-        <v>1193</v>
+        <v>1227</v>
       </c>
       <c r="F140" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>16</v>
+        <v>1228</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7711,22 +7718,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>1185</v>
+        <v>1219</v>
       </c>
       <c r="C141" t="s">
-        <v>1186</v>
+        <v>1220</v>
       </c>
       <c r="D141" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="E141" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
       <c r="F141" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7734,22 +7741,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="C142" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D142" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="E142" t="s">
-        <v>1183</v>
+        <v>1217</v>
       </c>
       <c r="F142" t="s">
-        <v>1184</v>
+        <v>1218</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7757,22 +7764,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="C143" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="D143" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="E143" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="F143" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="G143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7780,22 +7787,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1334</v>
+        <v>1204</v>
       </c>
       <c r="C144" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="D144" t="s">
-        <v>1172</v>
+        <v>1206</v>
       </c>
       <c r="E144" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F144" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
       <c r="G144" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7803,22 +7810,22 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>1166</v>
+        <v>1199</v>
       </c>
       <c r="C145" t="s">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="D145" t="s">
-        <v>1168</v>
+        <v>1201</v>
       </c>
       <c r="E145" t="s">
-        <v>1169</v>
+        <v>1202</v>
       </c>
       <c r="F145" t="s">
-        <v>1170</v>
+        <v>1203</v>
       </c>
       <c r="G145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7826,22 +7833,22 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1161</v>
+        <v>1194</v>
       </c>
       <c r="C146" t="s">
-        <v>1162</v>
+        <v>1195</v>
       </c>
       <c r="D146" t="s">
-        <v>1163</v>
+        <v>1196</v>
       </c>
       <c r="E146" t="s">
-        <v>1164</v>
+        <v>1197</v>
       </c>
       <c r="F146" t="s">
-        <v>1165</v>
+        <v>1198</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7849,22 +7856,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1156</v>
+        <v>1189</v>
       </c>
       <c r="C147" t="s">
-        <v>1157</v>
+        <v>1190</v>
       </c>
       <c r="D147" t="s">
-        <v>1158</v>
+        <v>1191</v>
       </c>
       <c r="E147" t="s">
-        <v>1159</v>
+        <v>1192</v>
       </c>
       <c r="F147" t="s">
-        <v>1160</v>
+        <v>1193</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7872,22 +7879,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1151</v>
+        <v>1184</v>
       </c>
       <c r="C148" t="s">
-        <v>1152</v>
+        <v>1185</v>
       </c>
       <c r="D148" t="s">
-        <v>1153</v>
+        <v>1186</v>
       </c>
       <c r="E148" t="s">
-        <v>1154</v>
+        <v>1187</v>
       </c>
       <c r="F148" t="s">
-        <v>1155</v>
+        <v>1188</v>
       </c>
       <c r="G148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7895,22 +7902,22 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1335</v>
+        <v>1179</v>
       </c>
       <c r="C149" t="s">
-        <v>1147</v>
+        <v>1180</v>
       </c>
       <c r="D149" t="s">
-        <v>1148</v>
+        <v>1181</v>
       </c>
       <c r="E149" t="s">
-        <v>1149</v>
+        <v>1182</v>
       </c>
       <c r="F149" t="s">
-        <v>1150</v>
+        <v>1183</v>
       </c>
       <c r="G149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7918,22 +7925,22 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>1142</v>
+        <v>1174</v>
       </c>
       <c r="C150" t="s">
-        <v>1143</v>
+        <v>1175</v>
       </c>
       <c r="D150" t="s">
-        <v>1144</v>
+        <v>1176</v>
       </c>
       <c r="E150" t="s">
-        <v>1145</v>
+        <v>1177</v>
       </c>
       <c r="F150" t="s">
-        <v>1146</v>
+        <v>1178</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7941,22 +7948,22 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>1137</v>
+        <v>1169</v>
       </c>
       <c r="C151" t="s">
-        <v>1138</v>
+        <v>1170</v>
       </c>
       <c r="D151" t="s">
-        <v>1139</v>
+        <v>1171</v>
       </c>
       <c r="E151" t="s">
-        <v>1140</v>
+        <v>1172</v>
       </c>
       <c r="F151" t="s">
-        <v>1141</v>
+        <v>1173</v>
       </c>
       <c r="G151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7964,22 +7971,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1132</v>
+        <v>1164</v>
       </c>
       <c r="C152" t="s">
-        <v>1133</v>
+        <v>1165</v>
       </c>
       <c r="D152" t="s">
-        <v>1134</v>
+        <v>1166</v>
       </c>
       <c r="E152" t="s">
-        <v>1135</v>
+        <v>1167</v>
       </c>
       <c r="F152" t="s">
-        <v>1136</v>
+        <v>1168</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -7987,22 +7994,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>1127</v>
+        <v>1159</v>
       </c>
       <c r="C153" t="s">
-        <v>1128</v>
+        <v>1160</v>
       </c>
       <c r="D153" t="s">
-        <v>1129</v>
+        <v>1161</v>
       </c>
       <c r="E153" t="s">
-        <v>1130</v>
+        <v>1162</v>
       </c>
       <c r="F153" t="s">
-        <v>1131</v>
+        <v>1163</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8010,22 +8017,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1336</v>
+        <v>1154</v>
       </c>
       <c r="C154" t="s">
-        <v>1123</v>
+        <v>1155</v>
       </c>
       <c r="D154" t="s">
-        <v>1124</v>
+        <v>1156</v>
       </c>
       <c r="E154" t="s">
-        <v>1125</v>
+        <v>1157</v>
       </c>
       <c r="F154" t="s">
-        <v>1126</v>
+        <v>1158</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8033,22 +8040,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8056,22 +8063,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="C156" t="s">
-        <v>1120</v>
+        <v>1151</v>
       </c>
       <c r="D156" t="s">
-        <v>1121</v>
+        <v>1152</v>
       </c>
       <c r="E156" t="s">
-        <v>1122</v>
+        <v>1153</v>
       </c>
       <c r="F156" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8079,22 +8086,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1114</v>
+        <v>1145</v>
       </c>
       <c r="C157" t="s">
-        <v>1115</v>
+        <v>1146</v>
       </c>
       <c r="D157" t="s">
-        <v>1116</v>
+        <v>1147</v>
       </c>
       <c r="E157" t="s">
-        <v>1117</v>
+        <v>1148</v>
       </c>
       <c r="F157" t="s">
-        <v>1118</v>
+        <v>1149</v>
       </c>
       <c r="G157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8102,22 +8109,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1109</v>
+        <v>1140</v>
       </c>
       <c r="C158" t="s">
-        <v>1110</v>
+        <v>1141</v>
       </c>
       <c r="D158" t="s">
-        <v>1111</v>
+        <v>1142</v>
       </c>
       <c r="E158" t="s">
-        <v>1112</v>
+        <v>1143</v>
       </c>
       <c r="F158" t="s">
-        <v>1113</v>
+        <v>1144</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8125,22 +8132,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1337</v>
+        <v>1135</v>
       </c>
       <c r="C159" t="s">
-        <v>1105</v>
+        <v>1136</v>
       </c>
       <c r="D159" t="s">
-        <v>1106</v>
+        <v>1137</v>
       </c>
       <c r="E159" t="s">
-        <v>1107</v>
+        <v>1138</v>
       </c>
       <c r="F159" t="s">
-        <v>1108</v>
+        <v>1139</v>
       </c>
       <c r="G159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8148,390 +8155,405 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1103</v>
+        <v>1133</v>
       </c>
       <c r="C160" t="s">
-        <v>1104</v>
+        <v>1134</v>
       </c>
       <c r="D160" t="s">
-        <v>1062</v>
+        <v>1090</v>
       </c>
       <c r="E160" t="s">
-        <v>1063</v>
+        <v>1091</v>
       </c>
       <c r="F160" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1098</v>
+        <v>1128</v>
       </c>
       <c r="C161" t="s">
-        <v>1099</v>
+        <v>1129</v>
       </c>
       <c r="D161" t="s">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="E161" t="s">
-        <v>1101</v>
+        <v>1131</v>
       </c>
       <c r="F161" t="s">
-        <v>1102</v>
+        <v>1132</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1093</v>
+        <v>1123</v>
       </c>
       <c r="C162" t="s">
-        <v>1094</v>
+        <v>1124</v>
       </c>
       <c r="D162" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
       <c r="E162" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="F162" t="s">
-        <v>1097</v>
+        <v>1127</v>
       </c>
       <c r="G162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1088</v>
+        <v>1118</v>
       </c>
       <c r="C163" t="s">
-        <v>1089</v>
+        <v>1119</v>
       </c>
       <c r="D163" t="s">
-        <v>1090</v>
+        <v>1120</v>
       </c>
       <c r="E163" t="s">
-        <v>1091</v>
+        <v>1121</v>
       </c>
       <c r="F163" t="s">
-        <v>1092</v>
+        <v>1122</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="C164" t="s">
-        <v>1084</v>
+        <v>1114</v>
       </c>
       <c r="D164" t="s">
-        <v>1085</v>
+        <v>1115</v>
       </c>
       <c r="E164" t="s">
-        <v>1086</v>
+        <v>1116</v>
       </c>
       <c r="F164" t="s">
-        <v>1087</v>
+        <v>1117</v>
       </c>
       <c r="G164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1078</v>
+        <v>1108</v>
       </c>
       <c r="C166" t="s">
-        <v>1079</v>
+        <v>1109</v>
       </c>
       <c r="D166" t="s">
-        <v>1080</v>
+        <v>1110</v>
       </c>
       <c r="E166" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="F166" t="s">
-        <v>1082</v>
+        <v>1112</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1073</v>
+        <v>1103</v>
       </c>
       <c r="C167" t="s">
-        <v>1074</v>
+        <v>1104</v>
       </c>
       <c r="D167" t="s">
-        <v>1075</v>
+        <v>1105</v>
       </c>
       <c r="E167" t="s">
-        <v>1076</v>
+        <v>1106</v>
       </c>
       <c r="F167" t="s">
-        <v>1077</v>
+        <v>1107</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1348</v>
+        <v>1098</v>
       </c>
       <c r="C168" t="s">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="D168" t="s">
-        <v>1070</v>
+        <v>1100</v>
       </c>
       <c r="E168" t="s">
-        <v>1071</v>
+        <v>1101</v>
       </c>
       <c r="F168" t="s">
-        <v>1072</v>
+        <v>1102</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1338</v>
+        <v>1093</v>
       </c>
       <c r="C169" t="s">
-        <v>1065</v>
+        <v>1094</v>
       </c>
       <c r="D169" t="s">
-        <v>1066</v>
+        <v>1095</v>
       </c>
       <c r="E169" t="s">
-        <v>1067</v>
+        <v>1096</v>
       </c>
       <c r="F169" t="s">
-        <v>1068</v>
+        <v>1097</v>
       </c>
       <c r="G169" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="C170" t="s">
-        <v>1061</v>
+        <v>1089</v>
       </c>
       <c r="D170" t="s">
-        <v>1062</v>
+        <v>1090</v>
       </c>
       <c r="E170" t="s">
-        <v>1063</v>
+        <v>1091</v>
       </c>
       <c r="F170" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="C171" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="D171" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="E171" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="F171" t="s">
-        <v>1059</v>
+        <v>1087</v>
       </c>
       <c r="G171" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="C172" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="D172" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="E172" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="F172" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="G172" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="C173" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="D173" t="s">
-        <v>1032</v>
+        <v>1059</v>
       </c>
       <c r="E173" t="s">
-        <v>1033</v>
+        <v>1060</v>
       </c>
       <c r="F173" t="s">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1339</v>
+        <v>1052</v>
       </c>
       <c r="C174" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="D174" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="E174" t="s">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="F174" t="s">
-        <v>1029</v>
+        <v>1056</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>1025</v>
+        <v>1051</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M175" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>1020</v>
+        <v>1046</v>
       </c>
       <c r="C176" t="s">
-        <v>1021</v>
+        <v>1047</v>
       </c>
       <c r="D176" t="s">
-        <v>1022</v>
+        <v>1048</v>
       </c>
       <c r="E176" t="s">
-        <v>1023</v>
+        <v>1049</v>
       </c>
       <c r="F176" t="s">
-        <v>1024</v>
+        <v>1050</v>
       </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8539,22 +8561,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="C177" t="s">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="D177" t="s">
-        <v>1017</v>
+        <v>1043</v>
       </c>
       <c r="E177" t="s">
-        <v>1018</v>
+        <v>1044</v>
       </c>
       <c r="F177" t="s">
-        <v>1019</v>
+        <v>1045</v>
       </c>
       <c r="G177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8562,22 +8584,22 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="C178" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="D178" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="E178" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="F178" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="G178" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8585,22 +8607,22 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="C179" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="D179" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="E179" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="F179" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="G179" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8608,22 +8630,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1340</v>
+        <v>1062</v>
       </c>
       <c r="C180" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="D180" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="E180" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="F180" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="G180" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8631,22 +8653,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>1011</v>
+        <v>1037</v>
       </c>
       <c r="C181" t="s">
-        <v>1012</v>
+        <v>1038</v>
       </c>
       <c r="D181" t="s">
-        <v>1013</v>
+        <v>1039</v>
       </c>
       <c r="E181" t="s">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="F181" t="s">
-        <v>1015</v>
+        <v>1041</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8654,22 +8676,22 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="C182" t="s">
-        <v>1007</v>
+        <v>1033</v>
       </c>
       <c r="D182" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
       <c r="E182" t="s">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="F182" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8677,22 +8699,22 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="C183" t="s">
-        <v>1002</v>
+        <v>1028</v>
       </c>
       <c r="D183" t="s">
-        <v>1003</v>
+        <v>1029</v>
       </c>
       <c r="E183" t="s">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="F183" t="s">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8700,22 +8722,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="C184" t="s">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="D184" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="E184" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="F184" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8723,22 +8745,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>991</v>
+        <v>1017</v>
       </c>
       <c r="C185" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="D185" t="s">
-        <v>993</v>
+        <v>1019</v>
       </c>
       <c r="E185" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
       <c r="F185" t="s">
-        <v>995</v>
+        <v>1021</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8746,22 +8768,22 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
       <c r="C186" t="s">
-        <v>987</v>
+        <v>1013</v>
       </c>
       <c r="D186" t="s">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="E186" t="s">
-        <v>989</v>
+        <v>1015</v>
       </c>
       <c r="F186" t="s">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8769,22 +8791,22 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>981</v>
+        <v>1007</v>
       </c>
       <c r="C187" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="D187" t="s">
-        <v>983</v>
+        <v>1009</v>
       </c>
       <c r="E187" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="F187" t="s">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8792,22 +8814,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>976</v>
+        <v>1002</v>
       </c>
       <c r="C188" t="s">
-        <v>977</v>
+        <v>1003</v>
       </c>
       <c r="D188" t="s">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="E188" t="s">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="F188" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8815,22 +8837,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="C189" t="s">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="D189" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="F189" t="s">
-        <v>975</v>
+        <v>1001</v>
       </c>
       <c r="G189" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8838,45 +8860,45 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1341</v>
+        <v>992</v>
       </c>
       <c r="C190" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="D190" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="E190" t="s">
-        <v>969</v>
+        <v>995</v>
       </c>
       <c r="F190" t="s">
-        <v>970</v>
+        <v>996</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="C191" t="s">
-        <v>963</v>
+        <v>988</v>
       </c>
       <c r="D191" t="s">
-        <v>964</v>
+        <v>989</v>
       </c>
       <c r="E191" t="s">
-        <v>965</v>
+        <v>990</v>
       </c>
       <c r="F191" t="s">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8884,22 +8906,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="C192" t="s">
-        <v>958</v>
+        <v>983</v>
       </c>
       <c r="D192" t="s">
-        <v>959</v>
+        <v>984</v>
       </c>
       <c r="E192" t="s">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="F192" t="s">
-        <v>961</v>
+        <v>986</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8907,22 +8929,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="C193" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="D193" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="E193" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="F193" t="s">
-        <v>956</v>
+        <v>981</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8930,22 +8952,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
       <c r="C194" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D194" t="s">
-        <v>949</v>
+        <v>974</v>
       </c>
       <c r="E194" t="s">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F194" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
       <c r="G194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8953,22 +8975,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8976,22 +8998,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>942</v>
+        <v>967</v>
       </c>
       <c r="C196" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
       <c r="D196" t="s">
-        <v>944</v>
+        <v>969</v>
       </c>
       <c r="E196" t="s">
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="F196" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -8999,22 +9021,22 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
       <c r="C197" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
       <c r="D197" t="s">
-        <v>939</v>
+        <v>964</v>
       </c>
       <c r="E197" t="s">
-        <v>940</v>
+        <v>965</v>
       </c>
       <c r="F197" t="s">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9022,22 +9044,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>932</v>
+        <v>957</v>
       </c>
       <c r="C198" t="s">
-        <v>933</v>
+        <v>958</v>
       </c>
       <c r="D198" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="E198" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="F198" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9045,22 +9067,22 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
       <c r="C199" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
       <c r="D199" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
       <c r="E199" t="s">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="F199" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9068,22 +9090,22 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1342</v>
+        <v>947</v>
       </c>
       <c r="C200" t="s">
-        <v>923</v>
+        <v>948</v>
       </c>
       <c r="D200" t="s">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="E200" t="s">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="F200" t="s">
-        <v>926</v>
+        <v>951</v>
       </c>
       <c r="G200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9091,22 +9113,22 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="C201" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="D201" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="E201" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="F201" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9114,22 +9136,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="C202" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="D202" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="E202" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="F202" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="G202" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9137,22 +9159,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="C203" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="D203" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="E203" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
       <c r="F203" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="G203" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9160,22 +9182,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="C204" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="D204" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="E204" t="s">
-        <v>906</v>
+        <v>930</v>
       </c>
       <c r="F204" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="G204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9183,22 +9205,22 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="C205" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="D205" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="E205" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
       <c r="F205" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="G205" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9206,22 +9228,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
       <c r="C206" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="D206" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="E206" t="s">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="F206" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
       <c r="G206" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9229,22 +9251,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="C207" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D207" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="E207" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="F207" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9252,22 +9274,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="C208" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="D208" t="s">
-        <v>889</v>
+        <v>913</v>
       </c>
       <c r="E208" t="s">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="F208" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
       <c r="G208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9275,22 +9297,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C209" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="D209" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="E209" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="F209" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9298,22 +9320,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1347</v>
+        <v>901</v>
       </c>
       <c r="C210" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="D210" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="E210" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="F210" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9321,22 +9343,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="C211" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="D211" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="E211" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="F211" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9344,22 +9366,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="C212" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="D212" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="E212" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="F212" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="G212" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9367,45 +9389,45 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1343</v>
+        <v>886</v>
       </c>
       <c r="C213" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="D213" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="E213" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="F213" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="G213" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1317</v>
+        <v>1352</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9413,22 +9435,22 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="C215" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="D215" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="E215" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="F215" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
       <c r="G215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9436,22 +9458,22 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="C216" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="D216" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="E216" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="F216" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9459,22 +9481,22 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="C217" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D217" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="E217" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="F217" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="G217" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9482,22 +9504,22 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="C218" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="D218" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="E218" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="F218" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="G218" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9505,22 +9527,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="C219" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="D219" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="E219" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="F219" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="G219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9528,22 +9550,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1344</v>
+        <v>860</v>
       </c>
       <c r="C220" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="D220" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="E220" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="F220" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9551,22 +9573,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="C221" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="D221" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="E221" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="F221" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="G221" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9574,22 +9596,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="C222" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="D222" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="E222" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="F222" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9597,22 +9619,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
       <c r="C223" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="D223" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
       <c r="E223" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="F223" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="G223" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9620,22 +9642,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1319</v>
+        <v>44</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D224" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F224" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G224" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9643,22 +9665,22 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="C225" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="D225" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="E225" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="F225" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="G225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9666,22 +9688,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="C226" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="D226" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="E226" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="F226" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="G226" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9689,22 +9711,22 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="C227" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D227" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="E227" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="F227" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9712,22 +9734,22 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C228" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="D228" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="E228" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="F228" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9735,22 +9757,22 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="C229" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="D229" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="E229" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="F229" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="G229" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9758,22 +9780,22 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1345</v>
+        <v>819</v>
       </c>
       <c r="C230" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="D230" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="E230" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="F230" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="G230" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9781,22 +9803,22 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="C231" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="D231" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="E231" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="F231" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="G231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9804,22 +9826,22 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="C232" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="D232" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="E232" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="F232" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9827,22 +9849,22 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="C233" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="D233" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="E233" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="F233" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="G233" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9850,22 +9872,22 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="C234" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D234" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E234" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="F234" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9873,22 +9895,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="C235" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="D235" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="E235" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="F235" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="G235" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9896,22 +9918,22 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="C236" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D236" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="E236" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="F236" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="G236" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9919,22 +9941,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="C237" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D237" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="E237" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="F237" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="G237" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9942,22 +9964,22 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="C238" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="D238" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="E238" t="s">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="F238" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="G238" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9965,22 +9987,22 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1320</v>
+        <v>778</v>
       </c>
       <c r="C239" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D239" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F239" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G239" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -9988,22 +10010,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1346</v>
+        <v>773</v>
       </c>
       <c r="C240" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="D240" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="E240" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="F240" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="G240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10011,22 +10033,22 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="C241" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="D241" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="E241" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="F241" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10034,22 +10056,22 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="C242" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="D242" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="E242" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="F242" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="G242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10057,22 +10079,22 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="C243" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="D243" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="E243" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="G243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10080,22 +10102,22 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="C244" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="D244" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="E244" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F244" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10103,22 +10125,22 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="C245" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="D245" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="E245" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="F245" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="G245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10126,22 +10148,22 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="C246" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="D246" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="E246" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F246" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10149,19 +10171,19 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="C247" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="D247" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="E247" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="G247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10169,22 +10191,22 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C248" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="D248" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="E248" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="F248" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="G248" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10192,22 +10214,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="C249" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="D249" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="E249" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="F249" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="G249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10215,22 +10237,22 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="C250" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="D250" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="E250" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="F250" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10238,22 +10260,22 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C251" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="D251" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E251" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F251" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="G251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10261,22 +10283,22 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C252" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="D252" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="E252" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="F252" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10284,22 +10306,22 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="C253" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="D253" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="E253" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F253" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="G253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10307,22 +10329,22 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="C254" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="D254" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="E254" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F254" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10330,22 +10352,22 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C255" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="D255" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E255" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F255" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="G255" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10353,22 +10375,22 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="C256" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="D256" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E256" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="F256" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10376,45 +10398,45 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="C257" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="D257" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="E257" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F257" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="G257" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="C258" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="D258" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E258" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F258" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="G258" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10422,22 +10444,22 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="C259" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="D259" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="E259" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F259" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="G259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10445,22 +10467,22 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="C260" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D260" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="E260" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="F260" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="G260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10468,22 +10490,22 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="C261" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="D261" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="E261" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="F261" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="G261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10491,22 +10513,22 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="C262" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="D262" t="s">
+        <v>674</v>
+      </c>
+      <c r="E262" t="s">
+        <v>675</v>
+      </c>
+      <c r="F262" t="s">
         <v>656</v>
       </c>
-      <c r="E262" t="s">
-        <v>657</v>
-      </c>
-      <c r="F262" t="s">
-        <v>638</v>
-      </c>
       <c r="G262" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10514,22 +10536,22 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C263" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="D263" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="E263" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F263" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="G263" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10537,22 +10559,22 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="C264" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="D264" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="E264" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="F264" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="G264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10560,22 +10582,22 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="C265" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="D265" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="E265" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="F265" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10583,22 +10605,22 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="C266" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="D266" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="E266" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="F266" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="G266" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10606,22 +10628,22 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="C267" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="D267" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="E267" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="F267" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10629,22 +10651,22 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="C268" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="D268" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="E268" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F268" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10652,22 +10674,22 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="C269" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="D269" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="E269" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F269" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10675,22 +10697,22 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="C270" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="D270" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="E270" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F270" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="G270" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10698,22 +10720,22 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C271" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D271" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="E271" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="F271" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="G271" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10721,22 +10743,22 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C272" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="D272" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="E272" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="F272" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="G272" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10744,22 +10766,22 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C273" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D273" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="E273" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="F273" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="G273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10767,22 +10789,22 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C274" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D274" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="E274" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="F274" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="G274" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10790,22 +10812,22 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C275" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D275" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="E275" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="F275" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="G275" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10813,22 +10835,22 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="C276" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="D276" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="E276" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F276" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="G276" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10836,22 +10858,22 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="C277" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="D277" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="E277" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="G277" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10859,22 +10881,22 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="C278" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D278" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="E278" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="F278" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="G278" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10882,22 +10904,22 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="C279" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D279" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="E279" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="F279" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10905,22 +10927,22 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C280" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="D280" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E280" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="F280" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="G280" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10928,22 +10950,22 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="C281" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="D281" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="E281" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F281" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -10951,39 +10973,30 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C282" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="D282" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G282" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:G282" xr:uid="{CC66868A-56BA-4AEC-98D9-A673F2CB0C76}">
+    <filterColumn colId="1">
       <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="C. CREATE"/>
-            <x14:filter val="C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y_x000a_C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y_x000a_C. La creación de múltiples máquinas virtuales en un solo servidor físico, permitiendo la ejecución simultánea de diferentes sistemas operativos y aplicaciones en un mismo hardware."/>
-            <x14:filter val="C. Un proceso de creación de presupuestos adecuado."/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="C. CREATE"/>
-            <filter val="C. Un proceso de creación de presupuestos adecuado."/>
-          </mc:Fallback>
-        </mc:AlternateContent>
+        <filter val="El patrón MVC facilita la organización del código separando las responsabilidades en diferentes componentes. Complete la afirmación: &quot;En MVC, el se encarga de la presentación de los datos, mientras que el maneja la lógica de negocio.&quot;"/>
+        <filter val="En una organización pequeña, en la que la segregación de responsabilidades no es práctica, un empleado desempeña funciones de operador de computadoras y de programador de aplicaciones. ¿Cuál de los siguientes controles debe recomendar sean implantados?"/>
       </filters>
     </filterColumn>
   </autoFilter>
